--- a/Data_analysis/Data_analysis.xlsx
+++ b/Data_analysis/Data_analysis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905A694A-0A5E-4D03-92EB-B290E6A69642}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7DD466-D83D-450C-9779-669326A45FB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="candados" sheetId="1" r:id="rId1"/>
@@ -8090,66 +8090,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>pattern!$B$3:$B$10</c:f>
+              <c:f>mandrill!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>59.960999999999999</c:v>
+                  <c:v>47.631999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.299000000000007</c:v>
+                  <c:v>80.001999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.724999999999994</c:v>
+                  <c:v>88.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.954999999999998</c:v>
+                  <c:v>92.644999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.144999999999996</c:v>
+                  <c:v>95.164000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89.966999999999999</c:v>
+                  <c:v>96.268000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.807000000000002</c:v>
+                  <c:v>97.706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95.89</c:v>
+                  <c:v>98.563999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>pattern!$A$3:$A$10</c:f>
+              <c:f>mandrill!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.54688000000000003</c:v>
+                  <c:v>5.8864000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.780999999999999</c:v>
+                  <c:v>73.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.609000000000002</c:v>
+                  <c:v>129.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>270.2</c:v>
+                  <c:v>197.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>869.44</c:v>
+                  <c:v>265.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1479.8</c:v>
+                  <c:v>317.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6031.1</c:v>
+                  <c:v>455.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6980</c:v>
+                  <c:v>698.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8193,66 +8193,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>pattern!$G$3:$G$10</c:f>
+              <c:f>mandrill!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>69.28</c:v>
+                  <c:v>50.875999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.72</c:v>
+                  <c:v>80.656999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.424999999999997</c:v>
+                  <c:v>88.245999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.915999999999997</c:v>
+                  <c:v>92.784999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.108999999999995</c:v>
+                  <c:v>95.412999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92.061000000000007</c:v>
+                  <c:v>96.587000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.968000000000004</c:v>
+                  <c:v>98.13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.713999999999999</c:v>
+                  <c:v>99.025999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>pattern!$F$3:$F$10</c:f>
+              <c:f>mandrill!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.54688000000000003</c:v>
+                  <c:v>5.8864000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.780999999999999</c:v>
+                  <c:v>73.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.609000000000002</c:v>
+                  <c:v>129.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>270.2</c:v>
+                  <c:v>197.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>869.44</c:v>
+                  <c:v>265.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1479.8</c:v>
+                  <c:v>317.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6031.1</c:v>
+                  <c:v>455.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6980</c:v>
+                  <c:v>698.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8279,7 +8279,8 @@
         <c:axId val="2085306543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="55"/>
+          <c:max val="110"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8698,66 +8699,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>pattern!$B$3:$B$10</c:f>
+              <c:f>mandrill!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>59.960999999999999</c:v>
+                  <c:v>47.631999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.299000000000007</c:v>
+                  <c:v>80.001999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.724999999999994</c:v>
+                  <c:v>88.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.954999999999998</c:v>
+                  <c:v>92.644999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.144999999999996</c:v>
+                  <c:v>95.164000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89.966999999999999</c:v>
+                  <c:v>96.268000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.807000000000002</c:v>
+                  <c:v>97.706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95.89</c:v>
+                  <c:v>98.563999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>pattern!$C$3:$C$10</c:f>
+              <c:f>mandrill!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>47.003999999999998</c:v>
+                  <c:v>35.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.945</c:v>
+                  <c:v>24.164000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.747</c:v>
+                  <c:v>21.687000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.065999999999999</c:v>
+                  <c:v>19.869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.99</c:v>
+                  <c:v>18.574000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.680999999999999</c:v>
+                  <c:v>17.806000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5787000000000004</c:v>
+                  <c:v>16.241</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9440999999999997</c:v>
+                  <c:v>14.377000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8801,66 +8802,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>pattern!$G$3:$G$10</c:f>
+              <c:f>mandrill!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>69.28</c:v>
+                  <c:v>50.875999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.72</c:v>
+                  <c:v>80.656999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.424999999999997</c:v>
+                  <c:v>88.245999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.915999999999997</c:v>
+                  <c:v>92.784999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.108999999999995</c:v>
+                  <c:v>95.412999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92.061000000000007</c:v>
+                  <c:v>96.587000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.968000000000004</c:v>
+                  <c:v>98.13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.713999999999999</c:v>
+                  <c:v>99.025999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>pattern!$H$3:$H$10</c:f>
+              <c:f>mandrill!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>47.003999999999998</c:v>
+                  <c:v>35.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.945</c:v>
+                  <c:v>24.164000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.747</c:v>
+                  <c:v>21.687000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.065999999999999</c:v>
+                  <c:v>19.869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.99</c:v>
+                  <c:v>18.574000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.680999999999999</c:v>
+                  <c:v>17.806000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5787000000000004</c:v>
+                  <c:v>16.241</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9440999999999997</c:v>
+                  <c:v>14.377000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8887,7 +8888,7 @@
         <c:axId val="2085306543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="55"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -25701,15 +25702,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25781,16 +25782,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25863,15 +25864,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25945,14 +25946,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26024,16 +26025,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26107,14 +26108,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26187,15 +26188,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26268,15 +26269,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>228601</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26348,16 +26349,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26430,15 +26431,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26510,16 +26511,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30785,7 +30786,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30832,210 +30833,210 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.54688000000000003</v>
+        <v>5.8864000000000001</v>
       </c>
       <c r="B3">
-        <v>59.960999999999999</v>
+        <v>47.631999999999998</v>
       </c>
       <c r="C3">
-        <v>47.003999999999998</v>
+        <v>35.122999999999998</v>
       </c>
       <c r="D3">
-        <v>0.99997999999999998</v>
+        <v>0.99594000000000005</v>
       </c>
       <c r="F3">
-        <v>0.54688000000000003</v>
+        <v>5.8864000000000001</v>
       </c>
       <c r="G3">
-        <v>69.28</v>
+        <v>50.875999999999998</v>
       </c>
       <c r="H3">
-        <v>47.003999999999998</v>
+        <v>35.122999999999998</v>
       </c>
       <c r="I3">
-        <v>0.99997999999999998</v>
+        <v>0.99594000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>27.780999999999999</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="B4">
-        <v>76.299000000000007</v>
+        <v>80.001999999999995</v>
       </c>
       <c r="C4">
-        <v>29.945</v>
+        <v>24.164000000000001</v>
       </c>
       <c r="D4">
-        <v>0.99909000000000003</v>
+        <v>0.95430999999999999</v>
       </c>
       <c r="F4">
-        <v>27.780999999999999</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="G4">
-        <v>78.72</v>
+        <v>80.656999999999996</v>
       </c>
       <c r="H4">
-        <v>29.945</v>
+        <v>24.164000000000001</v>
       </c>
       <c r="I4">
-        <v>0.99909000000000003</v>
+        <v>0.95430999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>36.609000000000002</v>
+        <v>129.86000000000001</v>
       </c>
       <c r="B5">
-        <v>80.724999999999994</v>
+        <v>88.1</v>
       </c>
       <c r="C5">
-        <v>28.747</v>
+        <v>21.687000000000001</v>
       </c>
       <c r="D5">
-        <v>0.99882000000000004</v>
+        <v>0.92457</v>
       </c>
       <c r="F5">
-        <v>36.609000000000002</v>
+        <v>129.86000000000001</v>
       </c>
       <c r="G5">
-        <v>82.424999999999997</v>
+        <v>88.245999999999995</v>
       </c>
       <c r="H5">
-        <v>28.747</v>
+        <v>21.687000000000001</v>
       </c>
       <c r="I5">
-        <v>0.99882000000000004</v>
+        <v>0.92457</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>270.2</v>
+        <v>197.33</v>
       </c>
       <c r="B6">
-        <v>84.954999999999998</v>
+        <v>92.644999999999996</v>
       </c>
       <c r="C6">
-        <v>20.065999999999999</v>
+        <v>19.869</v>
       </c>
       <c r="D6">
-        <v>0.99084000000000005</v>
+        <v>0.89093</v>
       </c>
       <c r="F6">
-        <v>270.2</v>
+        <v>197.33</v>
       </c>
       <c r="G6">
-        <v>86.915999999999997</v>
+        <v>92.784999999999997</v>
       </c>
       <c r="H6">
-        <v>20.065999999999999</v>
+        <v>19.869</v>
       </c>
       <c r="I6">
-        <v>0.99084000000000005</v>
+        <v>0.89093</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>869.44</v>
+        <v>265.89999999999998</v>
       </c>
       <c r="B7">
-        <v>88.144999999999996</v>
+        <v>95.164000000000001</v>
       </c>
       <c r="C7">
-        <v>14.99</v>
+        <v>18.574000000000002</v>
       </c>
       <c r="D7">
-        <v>0.96897</v>
+        <v>0.85538000000000003</v>
       </c>
       <c r="F7">
-        <v>869.44</v>
+        <v>265.89999999999998</v>
       </c>
       <c r="G7">
-        <v>90.108999999999995</v>
+        <v>95.412999999999997</v>
       </c>
       <c r="H7">
-        <v>14.99</v>
+        <v>18.574000000000002</v>
       </c>
       <c r="I7">
-        <v>0.96897</v>
+        <v>0.85538000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1479.8</v>
+        <v>317.36</v>
       </c>
       <c r="B8">
-        <v>89.966999999999999</v>
+        <v>96.268000000000001</v>
       </c>
       <c r="C8">
-        <v>12.680999999999999</v>
+        <v>17.806000000000001</v>
       </c>
       <c r="D8">
-        <v>0.94593000000000005</v>
+        <v>0.82913000000000003</v>
       </c>
       <c r="F8">
-        <v>1479.8</v>
+        <v>317.36</v>
       </c>
       <c r="G8">
-        <v>92.061000000000007</v>
+        <v>96.587000000000003</v>
       </c>
       <c r="H8">
-        <v>12.680999999999999</v>
+        <v>17.806000000000001</v>
       </c>
       <c r="I8">
-        <v>0.94593000000000005</v>
+        <v>0.82913000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6031.1</v>
+        <v>455.02</v>
       </c>
       <c r="B9">
-        <v>93.807000000000002</v>
+        <v>97.706000000000003</v>
       </c>
       <c r="C9">
-        <v>6.5787000000000004</v>
+        <v>16.241</v>
       </c>
       <c r="D9">
-        <v>0.74150000000000005</v>
+        <v>0.76197999999999999</v>
       </c>
       <c r="F9">
-        <v>6031.1</v>
+        <v>455.02</v>
       </c>
       <c r="G9">
-        <v>95.968000000000004</v>
+        <v>98.13</v>
       </c>
       <c r="H9">
-        <v>6.5787000000000004</v>
+        <v>16.241</v>
       </c>
       <c r="I9">
-        <v>0.74150000000000005</v>
+        <v>0.76197999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6980</v>
+        <v>698.92</v>
       </c>
       <c r="B10">
-        <v>95.89</v>
+        <v>98.563999999999993</v>
       </c>
       <c r="C10">
-        <v>5.9440999999999997</v>
+        <v>14.377000000000001</v>
       </c>
       <c r="D10">
-        <v>0.71897</v>
+        <v>0.63966000000000001</v>
       </c>
       <c r="F10">
-        <v>6980</v>
+        <v>698.92</v>
       </c>
       <c r="G10">
-        <v>98.713999999999999</v>
+        <v>99.025999999999996</v>
       </c>
       <c r="H10">
-        <v>5.9440999999999997</v>
+        <v>14.377000000000001</v>
       </c>
       <c r="I10">
-        <v>0.71897</v>
+        <v>0.63966000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -31860,7 +31861,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32398,7 +32399,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I10"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32667,7 +32668,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D10"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data_analysis/Data_analysis.xlsx
+++ b/Data_analysis/Data_analysis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DAD1FD-52B2-42A9-B697-6E864C476EA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37FC6A6-609D-4ABD-B7DF-700867E0FC38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="candados" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,14 @@
     <sheet name="gradient" sheetId="5" r:id="rId5"/>
     <sheet name="lena" sheetId="7" r:id="rId6"/>
     <sheet name="lennon" sheetId="8" r:id="rId7"/>
-    <sheet name="noise" sheetId="9" r:id="rId8"/>
-    <sheet name="pattern" sheetId="10" r:id="rId9"/>
-    <sheet name="mandrill" sheetId="11" r:id="rId10"/>
+    <sheet name="mandrill" sheetId="11" r:id="rId8"/>
+    <sheet name="noise" sheetId="9" r:id="rId9"/>
+    <sheet name="pattern" sheetId="10" r:id="rId10"/>
     <sheet name="x-ray" sheetId="12" r:id="rId11"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId12"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="7">
   <si>
     <t>DEFAULT</t>
   </si>
@@ -48,6 +51,9 @@
   </si>
   <si>
     <t>SSIM</t>
+  </si>
+  <si>
+    <t>CaliQ</t>
   </si>
 </sst>
 </file>
@@ -233,13 +239,13 @@
                   <c:v>93.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.712999999999994</c:v>
+                  <c:v>96.061000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.611000000000004</c:v>
+                  <c:v>97.506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.823999999999998</c:v>
+                  <c:v>98.271000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>98.498000000000005</c:v>
@@ -266,13 +272,13 @@
                   <c:v>98.405000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>141.84</c:v>
+                  <c:v>153.44999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>176.95</c:v>
+                  <c:v>240.54</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>282.2</c:v>
+                  <c:v>385.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>501.02</c:v>
@@ -336,13 +342,13 @@
                   <c:v>93.790999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.894999999999996</c:v>
+                  <c:v>96.265000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.86</c:v>
+                  <c:v>97.826999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.174999999999997</c:v>
+                  <c:v>98.662000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>98.921999999999997</c:v>
@@ -369,13 +375,13 @@
                   <c:v>98.405000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>141.84</c:v>
+                  <c:v>153.44999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>176.95</c:v>
+                  <c:v>240.54</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>282.2</c:v>
+                  <c:v>385.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>501.02</c:v>
@@ -838,13 +844,13 @@
                   <c:v>95.221000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.581000000000003</c:v>
+                  <c:v>96.861999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.200999999999993</c:v>
+                  <c:v>97.786000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.006</c:v>
+                  <c:v>98.369</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>98.575000000000003</c:v>
@@ -871,13 +877,13 @@
                   <c:v>153.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>244.2</c:v>
+                  <c:v>268.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>312.17</c:v>
+                  <c:v>421.09</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>481.96</c:v>
+                  <c:v>611.57000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>721.35</c:v>
@@ -941,13 +947,13 @@
                   <c:v>95.460999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.863</c:v>
+                  <c:v>97.144000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.521000000000001</c:v>
+                  <c:v>98.171999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.42</c:v>
+                  <c:v>98.805999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.031000000000006</c:v>
@@ -974,13 +980,13 @@
                   <c:v>153.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>244.2</c:v>
+                  <c:v>268.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>312.17</c:v>
+                  <c:v>421.09</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>481.96</c:v>
+                  <c:v>611.57000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>721.35</c:v>
@@ -1447,13 +1453,13 @@
                   <c:v>95.221000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.581000000000003</c:v>
+                  <c:v>96.861999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.200999999999993</c:v>
+                  <c:v>97.786000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.006</c:v>
+                  <c:v>98.369</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>98.575000000000003</c:v>
@@ -1480,13 +1486,13 @@
                   <c:v>13.736000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.715</c:v>
+                  <c:v>11.308999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.648</c:v>
+                  <c:v>9.3483000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7619000000000007</c:v>
+                  <c:v>7.7275999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.0106000000000002</c:v>
@@ -1550,13 +1556,13 @@
                   <c:v>95.460999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.863</c:v>
+                  <c:v>97.144000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.521000000000001</c:v>
+                  <c:v>98.171999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.42</c:v>
+                  <c:v>98.805999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.031000000000006</c:v>
@@ -1583,13 +1589,13 @@
                   <c:v>13.736000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.715</c:v>
+                  <c:v>11.308999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.648</c:v>
+                  <c:v>9.3483000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7619000000000007</c:v>
+                  <c:v>7.7275999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.0106000000000002</c:v>
@@ -2055,13 +2061,13 @@
                   <c:v>95.221000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.581000000000003</c:v>
+                  <c:v>96.861999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.200999999999993</c:v>
+                  <c:v>97.786000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.006</c:v>
+                  <c:v>98.369</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>98.575000000000003</c:v>
@@ -2088,13 +2094,13 @@
                   <c:v>0.90552999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88265000000000005</c:v>
+                  <c:v>0.87495000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83316999999999997</c:v>
+                  <c:v>0.82630999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78964000000000001</c:v>
+                  <c:v>0.70552999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.72690999999999995</c:v>
@@ -2158,13 +2164,13 @@
                   <c:v>95.460999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.863</c:v>
+                  <c:v>97.144000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.521000000000001</c:v>
+                  <c:v>98.171999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.42</c:v>
+                  <c:v>98.805999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.031000000000006</c:v>
@@ -2191,13 +2197,13 @@
                   <c:v>0.90552999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88265000000000005</c:v>
+                  <c:v>0.87495000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83316999999999997</c:v>
+                  <c:v>0.82630999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78964000000000001</c:v>
+                  <c:v>0.70552999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.72690999999999995</c:v>
@@ -2658,13 +2664,13 @@
                   <c:v>98.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.912000000000006</c:v>
+                  <c:v>98.926000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.947999999999993</c:v>
+                  <c:v>98.983000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.994</c:v>
+                  <c:v>99.013999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.022000000000006</c:v>
@@ -2691,13 +2697,13 @@
                   <c:v>2.6263999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0176999999999996</c:v>
+                  <c:v>5.9550999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1016999999999992</c:v>
+                  <c:v>19.771999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.486999999999998</c:v>
+                  <c:v>61.904000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>121.31</c:v>
@@ -2761,13 +2767,13 @@
                   <c:v>99.289000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.341999999999999</c:v>
+                  <c:v>99.364000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99.394999999999996</c:v>
+                  <c:v>99.445999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.457999999999998</c:v>
+                  <c:v>99.483999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.5</c:v>
@@ -2794,13 +2800,13 @@
                   <c:v>2.6263999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0176999999999996</c:v>
+                  <c:v>5.9550999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1016999999999992</c:v>
+                  <c:v>19.771999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.486999999999998</c:v>
+                  <c:v>61.904000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>121.31</c:v>
@@ -3265,13 +3271,13 @@
                   <c:v>98.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.912000000000006</c:v>
+                  <c:v>98.926000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.947999999999993</c:v>
+                  <c:v>98.983000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.994</c:v>
+                  <c:v>99.013999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.022000000000006</c:v>
@@ -3298,13 +3304,13 @@
                   <c:v>40.969000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.158000000000001</c:v>
+                  <c:v>37.414000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.076999999999998</c:v>
+                  <c:v>32.201999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.466000000000001</c:v>
+                  <c:v>27.245999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>24.324000000000002</c:v>
@@ -3368,13 +3374,13 @@
                   <c:v>99.289000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.341999999999999</c:v>
+                  <c:v>99.364000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99.394999999999996</c:v>
+                  <c:v>99.445999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.457999999999998</c:v>
+                  <c:v>99.483999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.5</c:v>
@@ -3401,13 +3407,13 @@
                   <c:v>40.969000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.158000000000001</c:v>
+                  <c:v>37.414000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.076999999999998</c:v>
+                  <c:v>32.201999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.466000000000001</c:v>
+                  <c:v>27.245999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>24.324000000000002</c:v>
@@ -3871,13 +3877,13 @@
                   <c:v>98.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.912000000000006</c:v>
+                  <c:v>98.926000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.947999999999993</c:v>
+                  <c:v>98.983000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.994</c:v>
+                  <c:v>99.013999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.022000000000006</c:v>
@@ -3904,13 +3910,13 @@
                   <c:v>0.99975000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99950000000000006</c:v>
+                  <c:v>0.99943000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99922</c:v>
+                  <c:v>0.99824000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99744999999999995</c:v>
+                  <c:v>0.99478</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.99014000000000002</c:v>
@@ -3974,13 +3980,13 @@
                   <c:v>99.289000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.341999999999999</c:v>
+                  <c:v>99.364000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99.394999999999996</c:v>
+                  <c:v>99.445999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.457999999999998</c:v>
+                  <c:v>99.483999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.5</c:v>
@@ -4007,13 +4013,13 @@
                   <c:v>0.99975000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99950000000000006</c:v>
+                  <c:v>0.99943000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99922</c:v>
+                  <c:v>0.99824000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99744999999999995</c:v>
+                  <c:v>0.99478</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.99014000000000002</c:v>
@@ -4461,28 +4467,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>55.451000000000001</c:v>
+                  <c:v>85.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.364999999999995</c:v>
+                  <c:v>93.763000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.403000000000006</c:v>
+                  <c:v>95.784000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.381</c:v>
+                  <c:v>97.114999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.5</c:v>
+                  <c:v>97.944000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94.436999999999998</c:v>
+                  <c:v>98.459000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.759</c:v>
+                  <c:v>98.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.545000000000002</c:v>
+                  <c:v>98.843999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4506,13 +4512,13 @@
                   <c:v>19.071999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.347999999999999</c:v>
+                  <c:v>31.137</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.44</c:v>
+                  <c:v>55.747</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.641000000000005</c:v>
+                  <c:v>105.91</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>141.81</c:v>
@@ -4564,28 +4570,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>56.726999999999997</c:v>
+                  <c:v>85.516999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.197999999999993</c:v>
+                  <c:v>94.042000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.186000000000007</c:v>
+                  <c:v>96.046000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.224000000000004</c:v>
+                  <c:v>97.397000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.492000000000004</c:v>
+                  <c:v>98.286000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.515000000000001</c:v>
+                  <c:v>98.849000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.007000000000005</c:v>
+                  <c:v>99.209000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97.971999999999994</c:v>
+                  <c:v>99.320999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4609,13 +4615,13 @@
                   <c:v>19.071999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.347999999999999</c:v>
+                  <c:v>31.137</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.44</c:v>
+                  <c:v>55.747</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.641000000000005</c:v>
+                  <c:v>105.91</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>141.81</c:v>
@@ -4645,8 +4651,6 @@
         <c:axId val="2085306543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="105"/>
-          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5070,28 +5074,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>55.451000000000001</c:v>
+                  <c:v>85.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.364999999999995</c:v>
+                  <c:v>93.763000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.403000000000006</c:v>
+                  <c:v>95.784000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.381</c:v>
+                  <c:v>97.114999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.5</c:v>
+                  <c:v>97.944000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94.436999999999998</c:v>
+                  <c:v>98.459000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.759</c:v>
+                  <c:v>98.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.545000000000002</c:v>
+                  <c:v>98.843999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5115,13 +5119,13 @@
                   <c:v>29.67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.949000000000002</c:v>
+                  <c:v>27.542000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.741</c:v>
+                  <c:v>25.012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.109000000000002</c:v>
+                  <c:v>22.225000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>20.957000000000001</c:v>
@@ -5173,28 +5177,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>56.726999999999997</c:v>
+                  <c:v>85.516999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.197999999999993</c:v>
+                  <c:v>94.042000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.186000000000007</c:v>
+                  <c:v>96.046000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.224000000000004</c:v>
+                  <c:v>97.397000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.492000000000004</c:v>
+                  <c:v>98.286000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.515000000000001</c:v>
+                  <c:v>98.849000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.007000000000005</c:v>
+                  <c:v>99.209000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97.971999999999994</c:v>
+                  <c:v>99.320999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5218,13 +5222,13 @@
                   <c:v>29.67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.949000000000002</c:v>
+                  <c:v>27.542000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.741</c:v>
+                  <c:v>25.012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.109000000000002</c:v>
+                  <c:v>22.225000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>20.957000000000001</c:v>
@@ -5254,8 +5258,6 @@
         <c:axId val="2085306543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="105"/>
-          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5678,28 +5680,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>55.451000000000001</c:v>
+                  <c:v>85.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.364999999999995</c:v>
+                  <c:v>93.763000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.403000000000006</c:v>
+                  <c:v>95.784000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.381</c:v>
+                  <c:v>97.114999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.5</c:v>
+                  <c:v>97.944000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94.436999999999998</c:v>
+                  <c:v>98.459000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.759</c:v>
+                  <c:v>98.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.545000000000002</c:v>
+                  <c:v>98.843999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5723,13 +5725,13 @@
                   <c:v>0.91202000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88529999999999998</c:v>
+                  <c:v>0.87819999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86212999999999995</c:v>
+                  <c:v>0.82540999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80323999999999995</c:v>
+                  <c:v>0.75270999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.72185999999999995</c:v>
@@ -5781,28 +5783,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>56.726999999999997</c:v>
+                  <c:v>85.516999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.197999999999993</c:v>
+                  <c:v>94.042000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.186000000000007</c:v>
+                  <c:v>96.046000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.224000000000004</c:v>
+                  <c:v>97.397000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.492000000000004</c:v>
+                  <c:v>98.286000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.515000000000001</c:v>
+                  <c:v>98.849000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.007000000000005</c:v>
+                  <c:v>99.209000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97.971999999999994</c:v>
+                  <c:v>99.320999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5826,13 +5828,13 @@
                   <c:v>0.91202000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88529999999999998</c:v>
+                  <c:v>0.87819999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86212999999999995</c:v>
+                  <c:v>0.82540999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80323999999999995</c:v>
+                  <c:v>0.75270999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.72185999999999995</c:v>
@@ -5862,7 +5864,6 @@
         <c:axId val="2085306543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="45"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6293,13 +6294,13 @@
                   <c:v>98.471999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.745999999999995</c:v>
+                  <c:v>98.787000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.84</c:v>
+                  <c:v>98.921999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.960999999999999</c:v>
+                  <c:v>99.004999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.03</c:v>
@@ -6326,13 +6327,13 @@
                   <c:v>4.7606999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5946999999999996</c:v>
+                  <c:v>10.532999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.877000000000001</c:v>
+                  <c:v>33.500999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.177999999999997</c:v>
+                  <c:v>63.915999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>127.42</c:v>
@@ -6396,13 +6397,13 @@
                   <c:v>98.843999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.179000000000002</c:v>
+                  <c:v>99.228999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99.298000000000002</c:v>
+                  <c:v>99.405000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.453000000000003</c:v>
+                  <c:v>99.507000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.537999999999997</c:v>
@@ -6429,13 +6430,13 @@
                   <c:v>4.7606999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5946999999999996</c:v>
+                  <c:v>10.532999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.877000000000001</c:v>
+                  <c:v>33.500999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.177999999999997</c:v>
+                  <c:v>63.915999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>127.42</c:v>
@@ -6900,13 +6901,13 @@
                   <c:v>93.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.712999999999994</c:v>
+                  <c:v>96.061000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.611000000000004</c:v>
+                  <c:v>97.506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.823999999999998</c:v>
+                  <c:v>98.271000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>98.498000000000005</c:v>
@@ -6933,13 +6934,13 @@
                   <c:v>22.956</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.367999999999999</c:v>
+                  <c:v>21.027000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.408000000000001</c:v>
+                  <c:v>19.074000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.381</c:v>
+                  <c:v>17.024000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>15.888</c:v>
@@ -7003,13 +7004,13 @@
                   <c:v>93.790999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.894999999999996</c:v>
+                  <c:v>96.265000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.86</c:v>
+                  <c:v>97.826999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.174999999999997</c:v>
+                  <c:v>98.662000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>98.921999999999997</c:v>
@@ -7036,13 +7037,13 @@
                   <c:v>22.956</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.367999999999999</c:v>
+                  <c:v>21.027000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.408000000000001</c:v>
+                  <c:v>19.074000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.381</c:v>
+                  <c:v>17.024000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>15.888</c:v>
@@ -7508,13 +7509,13 @@
                   <c:v>98.471999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.745999999999995</c:v>
+                  <c:v>98.787000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.84</c:v>
+                  <c:v>98.921999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.960999999999999</c:v>
+                  <c:v>99.004999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.03</c:v>
@@ -7541,13 +7542,13 @@
                   <c:v>35.633000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.067</c:v>
+                  <c:v>32.183999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.684999999999999</c:v>
+                  <c:v>27.158999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.37</c:v>
+                  <c:v>24.353999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>21.356999999999999</c:v>
@@ -7611,13 +7612,13 @@
                   <c:v>98.843999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.179000000000002</c:v>
+                  <c:v>99.228999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99.298000000000002</c:v>
+                  <c:v>99.405000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.453000000000003</c:v>
+                  <c:v>99.507000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.537999999999997</c:v>
@@ -7644,13 +7645,13 @@
                   <c:v>35.633000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.067</c:v>
+                  <c:v>32.183999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.684999999999999</c:v>
+                  <c:v>27.158999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.37</c:v>
+                  <c:v>24.353999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>21.356999999999999</c:v>
@@ -8114,13 +8115,13 @@
                   <c:v>98.471999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.745999999999995</c:v>
+                  <c:v>98.787000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.84</c:v>
+                  <c:v>98.921999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.960999999999999</c:v>
+                  <c:v>99.004999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.03</c:v>
@@ -8147,13 +8148,13 @@
                   <c:v>0.98233000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97163999999999995</c:v>
+                  <c:v>0.96606000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95726999999999995</c:v>
+                  <c:v>0.92689999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89941000000000004</c:v>
+                  <c:v>0.86175000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.80120999999999998</c:v>
@@ -8217,13 +8218,13 @@
                   <c:v>98.843999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.179000000000002</c:v>
+                  <c:v>99.228999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99.298000000000002</c:v>
+                  <c:v>99.405000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.453000000000003</c:v>
+                  <c:v>99.507000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.537999999999997</c:v>
@@ -8250,13 +8251,13 @@
                   <c:v>0.98233000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97163999999999995</c:v>
+                  <c:v>0.96606000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95726999999999995</c:v>
+                  <c:v>0.92689999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89941000000000004</c:v>
+                  <c:v>0.86175000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.80120999999999998</c:v>
@@ -8699,66 +8700,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>noise!$B$3:$B$10</c:f>
+              <c:f>mandrill!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.8041999999999998</c:v>
+                  <c:v>47.631999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.366999999999997</c:v>
+                  <c:v>80.001999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.832999999999998</c:v>
+                  <c:v>88.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.385999999999996</c:v>
+                  <c:v>92.644999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.352000000000004</c:v>
+                  <c:v>95.596000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.403999999999996</c:v>
+                  <c:v>97.323999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.007999999999996</c:v>
+                  <c:v>98.262</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.427000000000007</c:v>
+                  <c:v>98.563999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>noise!$A$3:$A$10</c:f>
+              <c:f>mandrill!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.8757999999999999</c:v>
+                  <c:v>5.8864000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131.16</c:v>
+                  <c:v>73.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.76</c:v>
+                  <c:v>129.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1730.4</c:v>
+                  <c:v>197.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3801.4</c:v>
+                  <c:v>283.54000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4548.6000000000004</c:v>
+                  <c:v>404.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5045.8999999999996</c:v>
+                  <c:v>581.30999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5432.2</c:v>
+                  <c:v>698.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8766,7 +8767,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-34A3-445C-BB26-BC760F95DECB}"/>
+              <c16:uniqueId val="{00000000-B43E-46F6-BEF4-B73A77137B4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8802,66 +8803,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>noise!$G$3:$G$10</c:f>
+              <c:f>mandrill!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>22.158999999999999</c:v>
+                  <c:v>50.875999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.023000000000003</c:v>
+                  <c:v>80.656999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.896999999999998</c:v>
+                  <c:v>88.245999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.424999999999997</c:v>
+                  <c:v>92.784999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.228999999999999</c:v>
+                  <c:v>95.872</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92.254999999999995</c:v>
+                  <c:v>97.718000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.665000000000006</c:v>
+                  <c:v>98.710999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.918000000000006</c:v>
+                  <c:v>99.025999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>noise!$F$3:$F$10</c:f>
+              <c:f>mandrill!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.8757999999999999</c:v>
+                  <c:v>5.8864000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131.16</c:v>
+                  <c:v>73.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.76</c:v>
+                  <c:v>129.86000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1730.4</c:v>
+                  <c:v>197.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3801.4</c:v>
+                  <c:v>283.54000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4548.6000000000004</c:v>
+                  <c:v>404.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5045.8999999999996</c:v>
+                  <c:v>581.30999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5432.2</c:v>
+                  <c:v>698.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8869,7 +8870,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-34A3-445C-BB26-BC760F95DECB}"/>
+              <c16:uniqueId val="{00000001-B43E-46F6-BEF4-B73A77137B4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8889,7 +8890,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
-          <c:min val="0"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9308,66 +9309,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>noise!$B$3:$B$10</c:f>
+              <c:f>mandrill!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.8041999999999998</c:v>
+                  <c:v>47.631999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.366999999999997</c:v>
+                  <c:v>80.001999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.832999999999998</c:v>
+                  <c:v>88.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.385999999999996</c:v>
+                  <c:v>92.644999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.352000000000004</c:v>
+                  <c:v>95.596000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.403999999999996</c:v>
+                  <c:v>97.323999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.007999999999996</c:v>
+                  <c:v>98.262</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.427000000000007</c:v>
+                  <c:v>98.563999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>noise!$C$3:$C$10</c:f>
+              <c:f>mandrill!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>35.67</c:v>
+                  <c:v>35.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.181999999999999</c:v>
+                  <c:v>24.164000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.364000000000001</c:v>
+                  <c:v>21.687000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.978999999999999</c:v>
+                  <c:v>19.869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5609000000000002</c:v>
+                  <c:v>18.295000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7815000000000003</c:v>
+                  <c:v>16.756</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3310000000000004</c:v>
+                  <c:v>15.177</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0106000000000002</c:v>
+                  <c:v>14.377000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9375,7 +9376,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A6B4-4847-96BF-5915E49A4103}"/>
+              <c16:uniqueId val="{00000000-457D-4A2D-8361-183D69820EEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9411,66 +9412,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>noise!$G$3:$G$10</c:f>
+              <c:f>mandrill!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>22.158999999999999</c:v>
+                  <c:v>50.875999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.023000000000003</c:v>
+                  <c:v>80.656999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.896999999999998</c:v>
+                  <c:v>88.245999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.424999999999997</c:v>
+                  <c:v>92.784999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.228999999999999</c:v>
+                  <c:v>95.872</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92.254999999999995</c:v>
+                  <c:v>97.718000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.665000000000006</c:v>
+                  <c:v>98.710999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.918000000000006</c:v>
+                  <c:v>99.025999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>noise!$H$3:$H$10</c:f>
+              <c:f>mandrill!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>35.67</c:v>
+                  <c:v>35.122999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.181999999999999</c:v>
+                  <c:v>24.164000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.364000000000001</c:v>
+                  <c:v>21.687000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.978999999999999</c:v>
+                  <c:v>19.869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5609000000000002</c:v>
+                  <c:v>18.295000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7815000000000003</c:v>
+                  <c:v>16.756</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3310000000000004</c:v>
+                  <c:v>15.177</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0106000000000002</c:v>
+                  <c:v>14.377000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9478,7 +9479,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A6B4-4847-96BF-5915E49A4103}"/>
+              <c16:uniqueId val="{00000001-457D-4A2D-8361-183D69820EEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9497,8 +9498,7 @@
         <c:axId val="2085306543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="110"/>
-          <c:min val="0"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9916,66 +9916,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>noise!$B$3:$B$10</c:f>
+              <c:f>mandrill!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.8041999999999998</c:v>
+                  <c:v>47.631999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.366999999999997</c:v>
+                  <c:v>80.001999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.832999999999998</c:v>
+                  <c:v>88.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.385999999999996</c:v>
+                  <c:v>92.644999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.352000000000004</c:v>
+                  <c:v>95.596000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.403999999999996</c:v>
+                  <c:v>97.323999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.007999999999996</c:v>
+                  <c:v>98.262</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.427000000000007</c:v>
+                  <c:v>98.563999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>noise!$D$3:$D$10</c:f>
+              <c:f>mandrill!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.99939999999999996</c:v>
+                  <c:v>0.99594000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98673999999999995</c:v>
+                  <c:v>0.95430999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95033000000000001</c:v>
+                  <c:v>0.92457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83479000000000003</c:v>
+                  <c:v>0.89093</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58616000000000001</c:v>
+                  <c:v>0.84646999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40745999999999999</c:v>
+                  <c:v>0.78649000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25085000000000002</c:v>
+                  <c:v>0.70035999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6688999999999997E-2</c:v>
+                  <c:v>0.63966000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9983,7 +9983,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D2AE-4F96-9F31-BF3E88269CA0}"/>
+              <c16:uniqueId val="{00000000-CAB6-491F-B4C5-B1D5B3BD98A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10019,66 +10019,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>noise!$G$3:$G$10</c:f>
+              <c:f>mandrill!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>22.158999999999999</c:v>
+                  <c:v>50.875999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.023000000000003</c:v>
+                  <c:v>80.656999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.896999999999998</c:v>
+                  <c:v>88.245999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.424999999999997</c:v>
+                  <c:v>92.784999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.228999999999999</c:v>
+                  <c:v>95.872</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92.254999999999995</c:v>
+                  <c:v>97.718000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.665000000000006</c:v>
+                  <c:v>98.710999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.918000000000006</c:v>
+                  <c:v>99.025999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>noise!$I$3:$I$10</c:f>
+              <c:f>mandrill!$I$3:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.99939999999999996</c:v>
+                  <c:v>0.99594000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98673999999999995</c:v>
+                  <c:v>0.95430999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95033000000000001</c:v>
+                  <c:v>0.92457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83479000000000003</c:v>
+                  <c:v>0.89093</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58616000000000001</c:v>
+                  <c:v>0.84646999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40745999999999999</c:v>
+                  <c:v>0.78649000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25085000000000002</c:v>
+                  <c:v>0.70035999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6688999999999997E-2</c:v>
+                  <c:v>0.63966000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10086,7 +10086,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D2AE-4F96-9F31-BF3E88269CA0}"/>
+              <c16:uniqueId val="{00000001-CAB6-491F-B4C5-B1D5B3BD98A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10105,6 +10105,7 @@
         <c:axId val="2085306543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -10518,66 +10519,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>pattern!$B$3:$B$10</c:f>
+              <c:f>noise!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>59.960999999999999</c:v>
+                  <c:v>3.8041999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.299000000000007</c:v>
+                  <c:v>46.366999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.724999999999994</c:v>
+                  <c:v>60.832999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.954999999999998</c:v>
+                  <c:v>74.385999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.144999999999996</c:v>
+                  <c:v>87.912999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89.966999999999999</c:v>
+                  <c:v>94.897999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.807000000000002</c:v>
+                  <c:v>97.646000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95.89</c:v>
+                  <c:v>98.427000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>pattern!$A$3:$A$10</c:f>
+              <c:f>noise!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.54688000000000003</c:v>
+                  <c:v>5.8757999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.780999999999999</c:v>
+                  <c:v>131.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.609000000000002</c:v>
+                  <c:v>500.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>270.2</c:v>
+                  <c:v>1730.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>869.44</c:v>
+                  <c:v>4179.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1479.8</c:v>
+                  <c:v>4884.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6031.1</c:v>
+                  <c:v>5316.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6980</c:v>
+                  <c:v>5432.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10585,7 +10586,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A25A-4429-874A-673386B9A89D}"/>
+              <c16:uniqueId val="{00000000-34A3-445C-BB26-BC760F95DECB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10621,66 +10622,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>pattern!$G$3:$G$10</c:f>
+              <c:f>noise!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>69.28</c:v>
+                  <c:v>22.158999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.72</c:v>
+                  <c:v>51.023000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.424999999999997</c:v>
+                  <c:v>63.896999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.915999999999997</c:v>
+                  <c:v>76.424999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.108999999999995</c:v>
+                  <c:v>89.372</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92.061000000000007</c:v>
+                  <c:v>95.575000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.968000000000004</c:v>
+                  <c:v>98.203000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.713999999999999</c:v>
+                  <c:v>98.918000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>pattern!$F$3:$F$10</c:f>
+              <c:f>noise!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.54688000000000003</c:v>
+                  <c:v>5.8757999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.780999999999999</c:v>
+                  <c:v>131.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.609000000000002</c:v>
+                  <c:v>500.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>270.2</c:v>
+                  <c:v>1730.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>869.44</c:v>
+                  <c:v>4179.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1479.8</c:v>
+                  <c:v>4884.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6031.1</c:v>
+                  <c:v>5316.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6980</c:v>
+                  <c:v>5432.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10688,7 +10689,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A25A-4429-874A-673386B9A89D}"/>
+              <c16:uniqueId val="{00000001-34A3-445C-BB26-BC760F95DECB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10707,7 +10708,8 @@
         <c:axId val="2085306543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="55"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -11126,66 +11128,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>pattern!$B$3:$B$10</c:f>
+              <c:f>noise!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>59.960999999999999</c:v>
+                  <c:v>3.8041999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.299000000000007</c:v>
+                  <c:v>46.366999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.724999999999994</c:v>
+                  <c:v>60.832999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.954999999999998</c:v>
+                  <c:v>74.385999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.144999999999996</c:v>
+                  <c:v>87.912999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89.966999999999999</c:v>
+                  <c:v>94.897999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.807000000000002</c:v>
+                  <c:v>97.646000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95.89</c:v>
+                  <c:v>98.427000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>pattern!$C$3:$C$10</c:f>
+              <c:f>noise!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>47.003999999999998</c:v>
+                  <c:v>35.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.945</c:v>
+                  <c:v>22.181999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.747</c:v>
+                  <c:v>16.364000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.065999999999999</c:v>
+                  <c:v>10.978999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.99</c:v>
+                  <c:v>7.1487999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.680999999999999</c:v>
+                  <c:v>6.4722</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5787000000000004</c:v>
+                  <c:v>6.1040000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9440999999999997</c:v>
+                  <c:v>6.0106000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11193,7 +11195,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-183C-481A-B0C0-14A74E994B30}"/>
+              <c16:uniqueId val="{00000000-A6B4-4847-96BF-5915E49A4103}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11229,66 +11231,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>pattern!$G$3:$G$10</c:f>
+              <c:f>noise!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>69.28</c:v>
+                  <c:v>22.158999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.72</c:v>
+                  <c:v>51.023000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.424999999999997</c:v>
+                  <c:v>63.896999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.915999999999997</c:v>
+                  <c:v>76.424999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.108999999999995</c:v>
+                  <c:v>89.372</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92.061000000000007</c:v>
+                  <c:v>95.575000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.968000000000004</c:v>
+                  <c:v>98.203000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.713999999999999</c:v>
+                  <c:v>98.918000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>pattern!$H$3:$H$10</c:f>
+              <c:f>noise!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>47.003999999999998</c:v>
+                  <c:v>35.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.945</c:v>
+                  <c:v>22.181999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.747</c:v>
+                  <c:v>16.364000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.065999999999999</c:v>
+                  <c:v>10.978999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.99</c:v>
+                  <c:v>7.1487999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.680999999999999</c:v>
+                  <c:v>6.4722</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5787000000000004</c:v>
+                  <c:v>6.1040000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9440999999999997</c:v>
+                  <c:v>6.0106000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11296,7 +11298,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-183C-481A-B0C0-14A74E994B30}"/>
+              <c16:uniqueId val="{00000001-A6B4-4847-96BF-5915E49A4103}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11315,7 +11317,8 @@
         <c:axId val="2085306543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="55"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -11733,66 +11736,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>pattern!$B$3:$B$10</c:f>
+              <c:f>noise!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>59.960999999999999</c:v>
+                  <c:v>3.8041999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.299000000000007</c:v>
+                  <c:v>46.366999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.724999999999994</c:v>
+                  <c:v>60.832999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.954999999999998</c:v>
+                  <c:v>74.385999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.144999999999996</c:v>
+                  <c:v>87.912999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89.966999999999999</c:v>
+                  <c:v>94.897999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.807000000000002</c:v>
+                  <c:v>97.646000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95.89</c:v>
+                  <c:v>98.427000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>pattern!$D$3:$D$10</c:f>
+              <c:f>noise!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.99997999999999998</c:v>
+                  <c:v>0.99939999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99909000000000003</c:v>
+                  <c:v>0.98673999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99882000000000004</c:v>
+                  <c:v>0.95033000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99084000000000005</c:v>
+                  <c:v>0.83479000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96897</c:v>
+                  <c:v>0.51253000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94593000000000005</c:v>
+                  <c:v>0.29066999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74150000000000005</c:v>
+                  <c:v>0.16772000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.71897</c:v>
+                  <c:v>9.6688999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11800,7 +11803,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B57D-48CF-B18F-D285F7225F7C}"/>
+              <c16:uniqueId val="{00000000-D2AE-4F96-9F31-BF3E88269CA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11836,66 +11839,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>pattern!$G$3:$G$10</c:f>
+              <c:f>noise!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>69.28</c:v>
+                  <c:v>22.158999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.72</c:v>
+                  <c:v>51.023000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.424999999999997</c:v>
+                  <c:v>63.896999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.915999999999997</c:v>
+                  <c:v>76.424999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.108999999999995</c:v>
+                  <c:v>89.372</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92.061000000000007</c:v>
+                  <c:v>95.575000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.968000000000004</c:v>
+                  <c:v>98.203000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.713999999999999</c:v>
+                  <c:v>98.918000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>pattern!$I$3:$I$10</c:f>
+              <c:f>noise!$I$3:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.99997999999999998</c:v>
+                  <c:v>0.99939999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99909000000000003</c:v>
+                  <c:v>0.98673999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99882000000000004</c:v>
+                  <c:v>0.95033000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99084000000000005</c:v>
+                  <c:v>0.83479000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96897</c:v>
+                  <c:v>0.51253000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94593000000000005</c:v>
+                  <c:v>0.29066999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74150000000000005</c:v>
+                  <c:v>0.16772000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.71897</c:v>
+                  <c:v>9.6688999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11903,7 +11906,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B57D-48CF-B18F-D285F7225F7C}"/>
+              <c16:uniqueId val="{00000001-D2AE-4F96-9F31-BF3E88269CA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11922,7 +11925,6 @@
         <c:axId val="2085306543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -12336,66 +12338,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>mandrill!$B$3:$B$10</c:f>
+              <c:f>pattern!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>47.631999999999998</c:v>
+                  <c:v>59.960999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.001999999999995</c:v>
+                  <c:v>76.299000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.1</c:v>
+                  <c:v>80.724999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.644999999999996</c:v>
+                  <c:v>84.954999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.164000000000001</c:v>
+                  <c:v>89.251000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.268000000000001</c:v>
+                  <c:v>92.245000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.706000000000003</c:v>
+                  <c:v>95.043999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.563999999999993</c:v>
+                  <c:v>95.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>mandrill!$A$3:$A$10</c:f>
+              <c:f>pattern!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.8864000000000001</c:v>
+                  <c:v>0.54688000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.400000000000006</c:v>
+                  <c:v>27.780999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>129.86000000000001</c:v>
+                  <c:v>36.609000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>197.33</c:v>
+                  <c:v>270.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>265.89999999999998</c:v>
+                  <c:v>928.56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>317.36</c:v>
+                  <c:v>4767.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>455.02</c:v>
+                  <c:v>7067.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>698.92</c:v>
+                  <c:v>6980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12403,7 +12405,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B43E-46F6-BEF4-B73A77137B4E}"/>
+              <c16:uniqueId val="{00000000-A25A-4429-874A-673386B9A89D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12439,66 +12441,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>mandrill!$G$3:$G$10</c:f>
+              <c:f>pattern!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>50.875999999999998</c:v>
+                  <c:v>69.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.656999999999996</c:v>
+                  <c:v>78.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.245999999999995</c:v>
+                  <c:v>82.424999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.784999999999997</c:v>
+                  <c:v>86.915999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.412999999999997</c:v>
+                  <c:v>90.954999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.587000000000003</c:v>
+                  <c:v>94.406000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.13</c:v>
+                  <c:v>97.536000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>99.025999999999996</c:v>
+                  <c:v>98.713999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>mandrill!$F$3:$F$10</c:f>
+              <c:f>pattern!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.8864000000000001</c:v>
+                  <c:v>0.54688000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.400000000000006</c:v>
+                  <c:v>27.780999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>129.86000000000001</c:v>
+                  <c:v>36.609000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>197.33</c:v>
+                  <c:v>270.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>265.89999999999998</c:v>
+                  <c:v>928.56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>317.36</c:v>
+                  <c:v>4767.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>455.02</c:v>
+                  <c:v>7067.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>698.92</c:v>
+                  <c:v>6980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12506,7 +12508,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B43E-46F6-BEF4-B73A77137B4E}"/>
+              <c16:uniqueId val="{00000001-A25A-4429-874A-673386B9A89D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12525,8 +12527,7 @@
         <c:axId val="2085306543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="110"/>
-          <c:min val="40"/>
+          <c:min val="55"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -12945,66 +12946,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>mandrill!$B$3:$B$10</c:f>
+              <c:f>pattern!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>47.631999999999998</c:v>
+                  <c:v>59.960999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.001999999999995</c:v>
+                  <c:v>76.299000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.1</c:v>
+                  <c:v>80.724999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.644999999999996</c:v>
+                  <c:v>84.954999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.164000000000001</c:v>
+                  <c:v>89.251000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.268000000000001</c:v>
+                  <c:v>92.245000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.706000000000003</c:v>
+                  <c:v>95.043999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.563999999999993</c:v>
+                  <c:v>95.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>mandrill!$C$3:$C$10</c:f>
+              <c:f>pattern!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>35.122999999999998</c:v>
+                  <c:v>47.003999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.164000000000001</c:v>
+                  <c:v>29.945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.687000000000001</c:v>
+                  <c:v>28.747</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.869</c:v>
+                  <c:v>20.065999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.574000000000002</c:v>
+                  <c:v>14.705</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.806000000000001</c:v>
+                  <c:v>7.5995999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.241</c:v>
+                  <c:v>5.8902000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.377000000000001</c:v>
+                  <c:v>5.9440999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13012,7 +13013,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-457D-4A2D-8361-183D69820EEC}"/>
+              <c16:uniqueId val="{00000000-183C-481A-B0C0-14A74E994B30}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13048,66 +13049,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>mandrill!$G$3:$G$10</c:f>
+              <c:f>pattern!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>50.875999999999998</c:v>
+                  <c:v>69.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.656999999999996</c:v>
+                  <c:v>78.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.245999999999995</c:v>
+                  <c:v>82.424999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.784999999999997</c:v>
+                  <c:v>86.915999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.412999999999997</c:v>
+                  <c:v>90.954999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.587000000000003</c:v>
+                  <c:v>94.406000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.13</c:v>
+                  <c:v>97.536000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>99.025999999999996</c:v>
+                  <c:v>98.713999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>mandrill!$H$3:$H$10</c:f>
+              <c:f>pattern!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>35.122999999999998</c:v>
+                  <c:v>47.003999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.164000000000001</c:v>
+                  <c:v>29.945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.687000000000001</c:v>
+                  <c:v>28.747</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.869</c:v>
+                  <c:v>20.065999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.574000000000002</c:v>
+                  <c:v>14.705</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.806000000000001</c:v>
+                  <c:v>7.5995999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.241</c:v>
+                  <c:v>5.8902000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.377000000000001</c:v>
+                  <c:v>5.9440999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13115,7 +13116,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-457D-4A2D-8361-183D69820EEC}"/>
+              <c16:uniqueId val="{00000001-183C-481A-B0C0-14A74E994B30}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13134,7 +13135,7 @@
         <c:axId val="2085306543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="40"/>
+          <c:min val="55"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -13569,13 +13570,13 @@
                   <c:v>93.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.712999999999994</c:v>
+                  <c:v>96.061000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.611000000000004</c:v>
+                  <c:v>97.506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.823999999999998</c:v>
+                  <c:v>98.271000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>98.498000000000005</c:v>
@@ -13602,13 +13603,13 @@
                   <c:v>0.92718999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89866000000000001</c:v>
+                  <c:v>0.89120999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87607000000000002</c:v>
+                  <c:v>0.83543999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81040999999999996</c:v>
+                  <c:v>0.75270999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.69149000000000005</c:v>
@@ -13672,13 +13673,13 @@
                   <c:v>93.790999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.894999999999996</c:v>
+                  <c:v>96.265000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.86</c:v>
+                  <c:v>97.826999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.174999999999997</c:v>
+                  <c:v>98.662000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>98.921999999999997</c:v>
@@ -13705,13 +13706,13 @@
                   <c:v>0.92718999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89866000000000001</c:v>
+                  <c:v>0.89120999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87607000000000002</c:v>
+                  <c:v>0.83543999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81040999999999996</c:v>
+                  <c:v>0.75270999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.69149000000000005</c:v>
@@ -14160,66 +14161,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>mandrill!$B$3:$B$10</c:f>
+              <c:f>pattern!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>47.631999999999998</c:v>
+                  <c:v>59.960999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.001999999999995</c:v>
+                  <c:v>76.299000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.1</c:v>
+                  <c:v>80.724999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.644999999999996</c:v>
+                  <c:v>84.954999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.164000000000001</c:v>
+                  <c:v>89.251000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.268000000000001</c:v>
+                  <c:v>92.245000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.706000000000003</c:v>
+                  <c:v>95.043999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.563999999999993</c:v>
+                  <c:v>95.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>mandrill!$D$3:$D$10</c:f>
+              <c:f>pattern!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.99594000000000005</c:v>
+                  <c:v>0.99997999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95430999999999999</c:v>
+                  <c:v>0.99909000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92457</c:v>
+                  <c:v>0.99882000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89093</c:v>
+                  <c:v>0.99084000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85538000000000003</c:v>
+                  <c:v>0.96694999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82913000000000003</c:v>
+                  <c:v>0.81054999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76197999999999999</c:v>
+                  <c:v>0.70365</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.63966000000000001</c:v>
+                  <c:v>0.71897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14227,7 +14228,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CAB6-491F-B4C5-B1D5B3BD98A6}"/>
+              <c16:uniqueId val="{00000000-B57D-48CF-B18F-D285F7225F7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14263,66 +14264,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>mandrill!$G$3:$G$10</c:f>
+              <c:f>pattern!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>50.875999999999998</c:v>
+                  <c:v>69.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.656999999999996</c:v>
+                  <c:v>78.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.245999999999995</c:v>
+                  <c:v>82.424999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.784999999999997</c:v>
+                  <c:v>86.915999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.412999999999997</c:v>
+                  <c:v>90.954999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.587000000000003</c:v>
+                  <c:v>94.406000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.13</c:v>
+                  <c:v>97.536000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>99.025999999999996</c:v>
+                  <c:v>98.713999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>mandrill!$I$3:$I$10</c:f>
+              <c:f>pattern!$I$3:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.99594000000000005</c:v>
+                  <c:v>0.99997999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95430999999999999</c:v>
+                  <c:v>0.99909000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92457</c:v>
+                  <c:v>0.99882000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89093</c:v>
+                  <c:v>0.99084000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85538000000000003</c:v>
+                  <c:v>0.96694999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82913000000000003</c:v>
+                  <c:v>0.81054999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76197999999999999</c:v>
+                  <c:v>0.70365</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.63966000000000001</c:v>
+                  <c:v>0.71897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14330,7 +14331,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CAB6-491F-B4C5-B1D5B3BD98A6}"/>
+              <c16:uniqueId val="{00000001-B57D-48CF-B18F-D285F7225F7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14349,7 +14350,7 @@
         <c:axId val="2085306543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="40"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -14784,13 +14785,13 @@
                   <c:v>97.088999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.888000000000005</c:v>
+                  <c:v>98.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.244</c:v>
+                  <c:v>98.573999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.688000000000002</c:v>
+                  <c:v>98.83</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>98.914000000000001</c:v>
@@ -14817,13 +14818,13 @@
                   <c:v>0.94760999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92073000000000005</c:v>
+                  <c:v>0.91369</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89824999999999999</c:v>
+                  <c:v>0.87197999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85570000000000002</c:v>
+                  <c:v>0.79915999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.81130000000000002</c:v>
@@ -14887,13 +14888,13 @@
                   <c:v>97.289000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.182000000000002</c:v>
+                  <c:v>98.346000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.597999999999999</c:v>
+                  <c:v>98.995999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.131</c:v>
+                  <c:v>99.302999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.400999999999996</c:v>
@@ -14920,13 +14921,13 @@
                   <c:v>0.94760999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92073000000000005</c:v>
+                  <c:v>0.91369</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89824999999999999</c:v>
+                  <c:v>0.87197999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85570000000000002</c:v>
+                  <c:v>0.79915999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.81130000000000002</c:v>
@@ -15391,13 +15392,13 @@
                   <c:v>97.088999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.888000000000005</c:v>
+                  <c:v>98.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.244</c:v>
+                  <c:v>98.573999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.688000000000002</c:v>
+                  <c:v>98.83</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>98.914000000000001</c:v>
@@ -15424,13 +15425,13 @@
                   <c:v>21.599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.954000000000001</c:v>
+                  <c:v>19.593</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.914000000000001</c:v>
+                  <c:v>17.478000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.788</c:v>
+                  <c:v>14.868</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>14.548</c:v>
@@ -15494,13 +15495,13 @@
                   <c:v>97.289000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.182000000000002</c:v>
+                  <c:v>98.346000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.597999999999999</c:v>
+                  <c:v>98.995999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.131</c:v>
+                  <c:v>99.302999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.400999999999996</c:v>
@@ -15527,13 +15528,13 @@
                   <c:v>21.599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.954000000000001</c:v>
+                  <c:v>19.593</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.914000000000001</c:v>
+                  <c:v>17.478000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.788</c:v>
+                  <c:v>14.868</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>14.548</c:v>
@@ -15994,13 +15995,13 @@
                   <c:v>97.088999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.888000000000005</c:v>
+                  <c:v>98.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.244</c:v>
+                  <c:v>98.573999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.688000000000002</c:v>
+                  <c:v>98.83</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>98.914000000000001</c:v>
@@ -16027,13 +16028,13 @@
                   <c:v>44.106999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.415999999999997</c:v>
+                  <c:v>70.001999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81.84</c:v>
+                  <c:v>113.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>133.54</c:v>
+                  <c:v>207.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>223.69</c:v>
@@ -16097,13 +16098,13 @@
                   <c:v>97.289000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.182000000000002</c:v>
+                  <c:v>98.346000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.597999999999999</c:v>
+                  <c:v>98.995999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.131</c:v>
+                  <c:v>99.302999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.400999999999996</c:v>
@@ -16130,13 +16131,13 @@
                   <c:v>44.106999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.415999999999997</c:v>
+                  <c:v>70.001999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81.84</c:v>
+                  <c:v>113.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>133.54</c:v>
+                  <c:v>207.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>223.69</c:v>
@@ -16598,13 +16599,13 @@
                   <c:v>98.94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.966999999999999</c:v>
+                  <c:v>98.97</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.978999999999999</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.004999999999995</c:v>
+                  <c:v>99.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.03</c:v>
@@ -16631,13 +16632,13 @@
                   <c:v>0.58333000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70833000000000002</c:v>
+                  <c:v>2.8332999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3333000000000004</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8332999999999999</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>97.582999999999998</c:v>
@@ -16701,13 +16702,13 @@
                   <c:v>99.465999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.483000000000004</c:v>
+                  <c:v>99.483999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99.492000000000004</c:v>
+                  <c:v>99.501999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.509</c:v>
+                  <c:v>99.518000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.527000000000001</c:v>
@@ -16734,13 +16735,13 @@
                   <c:v>0.58333000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70833000000000002</c:v>
+                  <c:v>2.8332999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3333000000000004</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8332999999999999</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>97.582999999999998</c:v>
@@ -17205,13 +17206,13 @@
                   <c:v>98.94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.966999999999999</c:v>
+                  <c:v>98.97</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.978999999999999</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.004999999999995</c:v>
+                  <c:v>99.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.03</c:v>
@@ -17238,13 +17239,13 @@
                   <c:v>47.427</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.584000000000003</c:v>
+                  <c:v>40.563000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.718000000000004</c:v>
+                  <c:v>37.128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.454000000000001</c:v>
+                  <c:v>31.106999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>25.193000000000001</c:v>
@@ -17308,13 +17309,13 @@
                   <c:v>99.465999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.483000000000004</c:v>
+                  <c:v>99.483999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99.492000000000004</c:v>
+                  <c:v>99.501999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.509</c:v>
+                  <c:v>99.518000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.527000000000001</c:v>
@@ -17341,13 +17342,13 @@
                   <c:v>47.427</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.584000000000003</c:v>
+                  <c:v>40.563000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.718000000000004</c:v>
+                  <c:v>37.128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.454000000000001</c:v>
+                  <c:v>31.106999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>25.193000000000001</c:v>
@@ -17811,13 +17812,13 @@
                   <c:v>98.94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.966999999999999</c:v>
+                  <c:v>98.97</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.978999999999999</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.004999999999995</c:v>
+                  <c:v>99.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.03</c:v>
@@ -17844,13 +17845,13 @@
                   <c:v>0.99992000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99994000000000005</c:v>
+                  <c:v>0.99988999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95384000000000002</c:v>
+                  <c:v>0.99965000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95411999999999997</c:v>
+                  <c:v>0.88895000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.99373999999999996</c:v>
@@ -17914,13 +17915,13 @@
                   <c:v>99.465999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.483000000000004</c:v>
+                  <c:v>99.483999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99.492000000000004</c:v>
+                  <c:v>99.501999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.509</c:v>
+                  <c:v>99.518000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.527000000000001</c:v>
@@ -17947,13 +17948,13 @@
                   <c:v>0.99992000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99994000000000005</c:v>
+                  <c:v>0.99988999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95384000000000002</c:v>
+                  <c:v>0.99965000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95411999999999997</c:v>
+                  <c:v>0.88895000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.99373999999999996</c:v>
@@ -18413,13 +18414,13 @@
                   <c:v>97.927999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.352000000000004</c:v>
+                  <c:v>98.417000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.513999999999996</c:v>
+                  <c:v>98.685000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.756</c:v>
+                  <c:v>98.867999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>98.915999999999997</c:v>
@@ -18446,13 +18447,13 @@
                   <c:v>43.939</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.86</c:v>
+                  <c:v>72.221000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.442999999999998</c:v>
+                  <c:v>101.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>126.02</c:v>
+                  <c:v>225.92</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>270.49</c:v>
@@ -18516,13 +18517,13 @@
                   <c:v>98.123000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.606999999999999</c:v>
+                  <c:v>98.683999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.805999999999997</c:v>
+                  <c:v>99.018000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.105999999999995</c:v>
+                  <c:v>99.251999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.313999999999993</c:v>
@@ -18549,13 +18550,13 @@
                   <c:v>43.939</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.86</c:v>
+                  <c:v>72.221000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.442999999999998</c:v>
+                  <c:v>101.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>126.02</c:v>
+                  <c:v>225.92</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>270.49</c:v>
@@ -19020,13 +19021,13 @@
                   <c:v>97.927999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.352000000000004</c:v>
+                  <c:v>98.417000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.513999999999996</c:v>
+                  <c:v>98.685000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.756</c:v>
+                  <c:v>98.867999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>98.915999999999997</c:v>
@@ -19053,13 +19054,13 @@
                   <c:v>27.477</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.654</c:v>
+                  <c:v>25.318999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.015999999999998</c:v>
+                  <c:v>23.859000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.901</c:v>
+                  <c:v>20.366</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>19.584</c:v>
@@ -19123,13 +19124,13 @@
                   <c:v>98.123000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.606999999999999</c:v>
+                  <c:v>98.683999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.805999999999997</c:v>
+                  <c:v>99.018000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.105999999999995</c:v>
+                  <c:v>99.251999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.313999999999993</c:v>
@@ -19156,13 +19157,13 @@
                   <c:v>27.477</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.654</c:v>
+                  <c:v>25.318999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.015999999999998</c:v>
+                  <c:v>23.859000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.901</c:v>
+                  <c:v>20.366</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>19.584</c:v>
@@ -19626,13 +19627,13 @@
                   <c:v>97.927999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.352000000000004</c:v>
+                  <c:v>98.417000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.513999999999996</c:v>
+                  <c:v>98.685000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.756</c:v>
+                  <c:v>98.867999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>98.915999999999997</c:v>
@@ -19659,13 +19660,13 @@
                   <c:v>0.99716000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99560999999999999</c:v>
+                  <c:v>0.99509000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99482000000000004</c:v>
+                  <c:v>0.99314999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99195</c:v>
+                  <c:v>0.98443000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.98395999999999995</c:v>
@@ -19729,13 +19730,13 @@
                   <c:v>98.123000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.606999999999999</c:v>
+                  <c:v>98.683999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.805999999999997</c:v>
+                  <c:v>99.018000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.105999999999995</c:v>
+                  <c:v>99.251999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.313999999999993</c:v>
@@ -19762,13 +19763,13 @@
                   <c:v>0.99716000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99560999999999999</c:v>
+                  <c:v>0.99509000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99482000000000004</c:v>
+                  <c:v>0.99314999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99195</c:v>
+                  <c:v>0.98443000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.98395999999999995</c:v>
@@ -38573,23 +38574,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B92D0A3-686E-41DD-A2B8-A669BE46235F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465B8C90-6F06-464C-9092-F8F3618B63D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38611,23 +38612,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95F2B71-8A14-4202-ABA8-1A90893EBB4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D6B9E5-AC62-482B-BBB5-C04D58FD5D5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38650,22 +38651,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>559254</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12246</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>263979</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>174171</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905BFEC6-6022-4ACA-BBF1-C35C14121AEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109B4DFF-D563-4011-88FF-17BBEFFBDEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -39525,6 +39526,125 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B92D0A3-686E-41DD-A2B8-A669BE46235F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95F2B71-8A14-4202-ABA8-1A90893EBB4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905BFEC6-6022-4ACA-BBF1-C35C14121AEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -39640,123 +39760,130 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465B8C90-6F06-464C-9092-F8F3618B63D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D6B9E5-AC62-482B-BBB5-C04D58FD5D5D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109B4DFF-D563-4011-88FF-17BBEFFBDEF0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="color_lines_default"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1">
+            <v>0.20832999999999999</v>
+          </cell>
+          <cell r="C1">
+            <v>98.796999999999997</v>
+          </cell>
+          <cell r="D1">
+            <v>51.899000000000001</v>
+          </cell>
+          <cell r="E1">
+            <v>0.99999000000000005</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>0.20832999999999999</v>
+          </cell>
+          <cell r="C2">
+            <v>98.867999999999995</v>
+          </cell>
+          <cell r="D2">
+            <v>51.899000000000001</v>
+          </cell>
+          <cell r="E2">
+            <v>0.99999000000000005</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.25</v>
+          </cell>
+          <cell r="C3">
+            <v>98.906999999999996</v>
+          </cell>
+          <cell r="D3">
+            <v>51.106999999999999</v>
+          </cell>
+          <cell r="E3">
+            <v>0.99999000000000005</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.58333000000000002</v>
+          </cell>
+          <cell r="C4">
+            <v>98.94</v>
+          </cell>
+          <cell r="D4">
+            <v>47.427</v>
+          </cell>
+          <cell r="E4">
+            <v>0.99992000000000003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>2.8332999999999999</v>
+          </cell>
+          <cell r="C5">
+            <v>98.97</v>
+          </cell>
+          <cell r="D5">
+            <v>40.563000000000002</v>
+          </cell>
+          <cell r="E5">
+            <v>0.99988999999999995</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>6.25</v>
+          </cell>
+          <cell r="C6">
+            <v>99</v>
+          </cell>
+          <cell r="D6">
+            <v>37.128</v>
+          </cell>
+          <cell r="E6">
+            <v>0.99965000000000004</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>25</v>
+          </cell>
+          <cell r="C7">
+            <v>99.02</v>
+          </cell>
+          <cell r="D7">
+            <v>31.106999999999999</v>
+          </cell>
+          <cell r="E7">
+            <v>0.88895000000000002</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>97.582999999999998</v>
+          </cell>
+          <cell r="C8">
+            <v>99.03</v>
+          </cell>
+          <cell r="D8">
+            <v>25.193000000000001</v>
+          </cell>
+          <cell r="E8">
+            <v>0.99373999999999996</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46602,8 +46729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46635,6 +46762,9 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
@@ -46661,6 +46791,9 @@
       <c r="D3">
         <v>0.99570000000000003</v>
       </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
       <c r="F3">
         <v>3.802</v>
       </c>
@@ -46687,6 +46820,9 @@
       <c r="D4">
         <v>0.97448999999999997</v>
       </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
       <c r="F4">
         <v>28.584</v>
       </c>
@@ -46713,6 +46849,9 @@
       <c r="D5">
         <v>0.95431999999999995</v>
       </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
       <c r="F5">
         <v>57.307000000000002</v>
       </c>
@@ -46739,6 +46878,9 @@
       <c r="D6">
         <v>0.92718999999999996</v>
       </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
       <c r="F6">
         <v>98.405000000000001</v>
       </c>
@@ -46754,80 +46896,89 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>141.84</v>
+        <v>153.44999999999999</v>
       </c>
       <c r="B7">
-        <v>95.712999999999994</v>
+        <v>96.061000000000007</v>
       </c>
       <c r="C7">
-        <v>21.367999999999999</v>
+        <v>21.027000000000001</v>
       </c>
       <c r="D7">
-        <v>0.89866000000000001</v>
+        <v>0.89120999999999995</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
       </c>
       <c r="F7">
-        <v>141.84</v>
+        <v>153.44999999999999</v>
       </c>
       <c r="G7">
-        <v>95.894999999999996</v>
+        <v>96.265000000000001</v>
       </c>
       <c r="H7">
-        <v>21.367999999999999</v>
+        <v>21.027000000000001</v>
       </c>
       <c r="I7">
-        <v>0.89866000000000001</v>
+        <v>0.89120999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>176.95</v>
+        <v>240.54</v>
       </c>
       <c r="B8">
-        <v>96.611000000000004</v>
+        <v>97.506</v>
       </c>
       <c r="C8">
-        <v>20.408000000000001</v>
+        <v>19.074000000000002</v>
       </c>
       <c r="D8">
-        <v>0.87607000000000002</v>
+        <v>0.83543999999999996</v>
+      </c>
+      <c r="E8">
+        <v>400</v>
       </c>
       <c r="F8">
-        <v>176.95</v>
+        <v>240.54</v>
       </c>
       <c r="G8">
-        <v>96.86</v>
+        <v>97.826999999999998</v>
       </c>
       <c r="H8">
-        <v>20.408000000000001</v>
+        <v>19.074000000000002</v>
       </c>
       <c r="I8">
-        <v>0.87607000000000002</v>
+        <v>0.83543999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>282.2</v>
+        <v>385.67</v>
       </c>
       <c r="B9">
-        <v>97.823999999999998</v>
+        <v>98.271000000000001</v>
       </c>
       <c r="C9">
-        <v>18.381</v>
+        <v>17.024000000000001</v>
       </c>
       <c r="D9">
-        <v>0.81040999999999996</v>
+        <v>0.75270999999999999</v>
+      </c>
+      <c r="E9">
+        <v>750</v>
       </c>
       <c r="F9">
-        <v>282.2</v>
+        <v>385.67</v>
       </c>
       <c r="G9">
-        <v>98.174999999999997</v>
+        <v>98.662000000000006</v>
       </c>
       <c r="H9">
-        <v>18.381</v>
+        <v>17.024000000000001</v>
       </c>
       <c r="I9">
-        <v>0.81040999999999996</v>
+        <v>0.75270999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -46842,6 +46993,9 @@
       </c>
       <c r="D10">
         <v>0.69149000000000005</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
       </c>
       <c r="F10">
         <v>501.02</v>
@@ -46868,11 +47022,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0093A1-6E7D-4584-978F-076087F7F153}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC42B418-3195-4346-A076-C36A46A17E97}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I10" sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46904,6 +47058,9 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
@@ -46919,210 +47076,530 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5.8864000000000001</v>
+        <v>0.54688000000000003</v>
       </c>
       <c r="B3">
-        <v>47.631999999999998</v>
+        <v>59.960999999999999</v>
       </c>
       <c r="C3">
-        <v>35.122999999999998</v>
+        <v>47.003999999999998</v>
       </c>
       <c r="D3">
-        <v>0.99594000000000005</v>
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>5.8864000000000001</v>
+        <v>0.54688000000000003</v>
       </c>
       <c r="G3">
-        <v>50.875999999999998</v>
+        <v>69.28</v>
       </c>
       <c r="H3">
-        <v>35.122999999999998</v>
+        <v>47.003999999999998</v>
       </c>
       <c r="I3">
-        <v>0.99594000000000005</v>
+        <v>0.99997999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>73.400000000000006</v>
+        <v>27.780999999999999</v>
       </c>
       <c r="B4">
-        <v>80.001999999999995</v>
+        <v>76.299000000000007</v>
       </c>
       <c r="C4">
-        <v>24.164000000000001</v>
+        <v>29.945</v>
       </c>
       <c r="D4">
-        <v>0.95430999999999999</v>
+        <v>0.99909000000000003</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>73.400000000000006</v>
+        <v>27.780999999999999</v>
       </c>
       <c r="G4">
-        <v>80.656999999999996</v>
+        <v>78.72</v>
       </c>
       <c r="H4">
-        <v>24.164000000000001</v>
+        <v>29.945</v>
       </c>
       <c r="I4">
-        <v>0.95430999999999999</v>
+        <v>0.99909000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>129.86000000000001</v>
+        <v>36.609000000000002</v>
       </c>
       <c r="B5">
-        <v>88.1</v>
+        <v>80.724999999999994</v>
       </c>
       <c r="C5">
-        <v>21.687000000000001</v>
+        <v>28.747</v>
       </c>
       <c r="D5">
-        <v>0.92457</v>
+        <v>0.99882000000000004</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
       </c>
       <c r="F5">
-        <v>129.86000000000001</v>
+        <v>36.609000000000002</v>
       </c>
       <c r="G5">
-        <v>88.245999999999995</v>
+        <v>82.424999999999997</v>
       </c>
       <c r="H5">
-        <v>21.687000000000001</v>
+        <v>28.747</v>
       </c>
       <c r="I5">
-        <v>0.92457</v>
+        <v>0.99882000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>197.33</v>
+        <v>270.2</v>
       </c>
       <c r="B6">
-        <v>92.644999999999996</v>
+        <v>84.954999999999998</v>
       </c>
       <c r="C6">
-        <v>19.869</v>
+        <v>20.065999999999999</v>
       </c>
       <c r="D6">
-        <v>0.89093</v>
+        <v>0.99084000000000005</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
       </c>
       <c r="F6">
-        <v>197.33</v>
+        <v>270.2</v>
       </c>
       <c r="G6">
-        <v>92.784999999999997</v>
+        <v>86.915999999999997</v>
       </c>
       <c r="H6">
-        <v>19.869</v>
+        <v>20.065999999999999</v>
       </c>
       <c r="I6">
-        <v>0.89093</v>
+        <v>0.99084000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>265.89999999999998</v>
+        <v>928.56</v>
       </c>
       <c r="B7">
-        <v>95.164000000000001</v>
+        <v>89.251000000000005</v>
       </c>
       <c r="C7">
-        <v>18.574000000000002</v>
+        <v>14.705</v>
       </c>
       <c r="D7">
-        <v>0.85538000000000003</v>
+        <v>0.96694999999999998</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
       </c>
       <c r="F7">
-        <v>265.89999999999998</v>
+        <v>928.56</v>
       </c>
       <c r="G7">
-        <v>95.412999999999997</v>
+        <v>90.954999999999998</v>
       </c>
       <c r="H7">
-        <v>18.574000000000002</v>
+        <v>14.705</v>
       </c>
       <c r="I7">
-        <v>0.85538000000000003</v>
+        <v>0.96694999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>317.36</v>
+        <v>4767.7</v>
       </c>
       <c r="B8">
-        <v>96.268000000000001</v>
+        <v>92.245000000000005</v>
       </c>
       <c r="C8">
-        <v>17.806000000000001</v>
+        <v>7.5995999999999997</v>
       </c>
       <c r="D8">
-        <v>0.82913000000000003</v>
+        <v>0.81054999999999999</v>
+      </c>
+      <c r="E8">
+        <v>400</v>
       </c>
       <c r="F8">
-        <v>317.36</v>
+        <v>4767.7</v>
       </c>
       <c r="G8">
-        <v>96.587000000000003</v>
+        <v>94.406000000000006</v>
       </c>
       <c r="H8">
-        <v>17.806000000000001</v>
+        <v>7.5995999999999997</v>
       </c>
       <c r="I8">
-        <v>0.82913000000000003</v>
+        <v>0.81054999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>455.02</v>
+        <v>7067.2</v>
       </c>
       <c r="B9">
-        <v>97.706000000000003</v>
+        <v>95.043999999999997</v>
       </c>
       <c r="C9">
-        <v>16.241</v>
+        <v>5.8902000000000001</v>
       </c>
       <c r="D9">
-        <v>0.76197999999999999</v>
+        <v>0.70365</v>
+      </c>
+      <c r="E9">
+        <v>750</v>
       </c>
       <c r="F9">
-        <v>455.02</v>
+        <v>7067.2</v>
       </c>
       <c r="G9">
-        <v>98.13</v>
+        <v>97.536000000000001</v>
       </c>
       <c r="H9">
-        <v>16.241</v>
+        <v>5.8902000000000001</v>
       </c>
       <c r="I9">
-        <v>0.76197999999999999</v>
+        <v>0.70365</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>698.92</v>
+        <v>6980</v>
       </c>
       <c r="B10">
-        <v>98.563999999999993</v>
+        <v>95.89</v>
       </c>
       <c r="C10">
-        <v>14.377000000000001</v>
+        <v>5.9440999999999997</v>
       </c>
       <c r="D10">
-        <v>0.63966000000000001</v>
+        <v>0.71897</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
       </c>
       <c r="F10">
-        <v>698.92</v>
+        <v>6980</v>
       </c>
       <c r="G10">
-        <v>99.025999999999996</v>
+        <v>98.713999999999999</v>
       </c>
       <c r="H10">
-        <v>14.377000000000001</v>
+        <v>5.9440999999999997</v>
       </c>
       <c r="I10">
-        <v>0.63966000000000001</v>
+        <v>0.71897</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903CD3E1-1301-4F6C-99F0-83E60939AC74}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I10" sqref="A1:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3.1168999999999998</v>
+      </c>
+      <c r="B3">
+        <v>77.450999999999993</v>
+      </c>
+      <c r="C3">
+        <v>33.106999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.98370999999999997</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>3.1168999999999998</v>
+      </c>
+      <c r="G3">
+        <v>78.006</v>
+      </c>
+      <c r="H3">
+        <v>33.106999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.98370999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16.312999999999999</v>
+      </c>
+      <c r="B4">
+        <v>92.677000000000007</v>
+      </c>
+      <c r="C4">
+        <v>25.919</v>
+      </c>
+      <c r="D4">
+        <v>0.96718000000000004</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>16.312999999999999</v>
+      </c>
+      <c r="G4">
+        <v>92.759</v>
+      </c>
+      <c r="H4">
+        <v>25.919</v>
+      </c>
+      <c r="I4">
+        <v>0.96718000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>27.827000000000002</v>
+      </c>
+      <c r="B5">
+        <v>95.521000000000001</v>
+      </c>
+      <c r="C5">
+        <v>23.599</v>
+      </c>
+      <c r="D5">
+        <v>0.95884999999999998</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>27.827000000000002</v>
+      </c>
+      <c r="G5">
+        <v>95.599000000000004</v>
+      </c>
+      <c r="H5">
+        <v>23.599</v>
+      </c>
+      <c r="I5">
+        <v>0.95884999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>44.106999999999999</v>
+      </c>
+      <c r="B6">
+        <v>97.088999999999999</v>
+      </c>
+      <c r="C6">
+        <v>21.599</v>
+      </c>
+      <c r="D6">
+        <v>0.94760999999999995</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>44.106999999999999</v>
+      </c>
+      <c r="G6">
+        <v>97.289000000000001</v>
+      </c>
+      <c r="H6">
+        <v>21.599</v>
+      </c>
+      <c r="I6">
+        <v>0.94760999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>70.001999999999995</v>
+      </c>
+      <c r="B7">
+        <v>98.03</v>
+      </c>
+      <c r="C7">
+        <v>19.593</v>
+      </c>
+      <c r="D7">
+        <v>0.91369</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="F7">
+        <v>70.001999999999995</v>
+      </c>
+      <c r="G7">
+        <v>98.346000000000004</v>
+      </c>
+      <c r="H7">
+        <v>19.593</v>
+      </c>
+      <c r="I7">
+        <v>0.91369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>113.92</v>
+      </c>
+      <c r="B8">
+        <v>98.573999999999998</v>
+      </c>
+      <c r="C8">
+        <v>17.478000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.87197999999999998</v>
+      </c>
+      <c r="E8">
+        <v>400</v>
+      </c>
+      <c r="F8">
+        <v>113.92</v>
+      </c>
+      <c r="G8">
+        <v>98.995999999999995</v>
+      </c>
+      <c r="H8">
+        <v>17.478000000000002</v>
+      </c>
+      <c r="I8">
+        <v>0.87197999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>207.8</v>
+      </c>
+      <c r="B9">
+        <v>98.83</v>
+      </c>
+      <c r="C9">
+        <v>14.868</v>
+      </c>
+      <c r="D9">
+        <v>0.79915999999999998</v>
+      </c>
+      <c r="E9">
+        <v>750</v>
+      </c>
+      <c r="F9">
+        <v>207.8</v>
+      </c>
+      <c r="G9">
+        <v>99.302999999999997</v>
+      </c>
+      <c r="H9">
+        <v>14.868</v>
+      </c>
+      <c r="I9">
+        <v>0.79915999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>223.69</v>
+      </c>
+      <c r="B10">
+        <v>98.914000000000001</v>
+      </c>
+      <c r="C10">
+        <v>14.548</v>
+      </c>
+      <c r="D10">
+        <v>0.81130000000000002</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
+      </c>
+      <c r="F10">
+        <v>223.69</v>
+      </c>
+      <c r="G10">
+        <v>99.400999999999996</v>
+      </c>
+      <c r="H10">
+        <v>14.548</v>
+      </c>
+      <c r="I10">
+        <v>0.81130000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -47136,12 +47613,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903CD3E1-1301-4F6C-99F0-83E60939AC74}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538666A5-2273-42DB-B81E-15C7E3096FF1}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I10" sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47173,273 +47650,8 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3.1168999999999998</v>
-      </c>
-      <c r="B3">
-        <v>77.450999999999993</v>
-      </c>
-      <c r="C3">
-        <v>33.106999999999999</v>
-      </c>
-      <c r="D3">
-        <v>0.98370999999999997</v>
-      </c>
-      <c r="F3">
-        <v>3.1168999999999998</v>
-      </c>
-      <c r="G3">
-        <v>78.006</v>
-      </c>
-      <c r="H3">
-        <v>33.106999999999999</v>
-      </c>
-      <c r="I3">
-        <v>0.98370999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>16.312999999999999</v>
-      </c>
-      <c r="B4">
-        <v>92.677000000000007</v>
-      </c>
-      <c r="C4">
-        <v>25.919</v>
-      </c>
-      <c r="D4">
-        <v>0.96718000000000004</v>
-      </c>
-      <c r="F4">
-        <v>16.312999999999999</v>
-      </c>
-      <c r="G4">
-        <v>92.759</v>
-      </c>
-      <c r="H4">
-        <v>25.919</v>
-      </c>
-      <c r="I4">
-        <v>0.96718000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>27.827000000000002</v>
-      </c>
-      <c r="B5">
-        <v>95.521000000000001</v>
-      </c>
-      <c r="C5">
-        <v>23.599</v>
-      </c>
-      <c r="D5">
-        <v>0.95884999999999998</v>
-      </c>
-      <c r="F5">
-        <v>27.827000000000002</v>
-      </c>
-      <c r="G5">
-        <v>95.599000000000004</v>
-      </c>
-      <c r="H5">
-        <v>23.599</v>
-      </c>
-      <c r="I5">
-        <v>0.95884999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>44.106999999999999</v>
-      </c>
-      <c r="B6">
-        <v>97.088999999999999</v>
-      </c>
-      <c r="C6">
-        <v>21.599</v>
-      </c>
-      <c r="D6">
-        <v>0.94760999999999995</v>
-      </c>
-      <c r="F6">
-        <v>44.106999999999999</v>
-      </c>
-      <c r="G6">
-        <v>97.289000000000001</v>
-      </c>
-      <c r="H6">
-        <v>21.599</v>
-      </c>
-      <c r="I6">
-        <v>0.94760999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>64.415999999999997</v>
-      </c>
-      <c r="B7">
-        <v>97.888000000000005</v>
-      </c>
-      <c r="C7">
-        <v>19.954000000000001</v>
-      </c>
-      <c r="D7">
-        <v>0.92073000000000005</v>
-      </c>
-      <c r="F7">
-        <v>64.415999999999997</v>
-      </c>
-      <c r="G7">
-        <v>98.182000000000002</v>
-      </c>
-      <c r="H7">
-        <v>19.954000000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.92073000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>81.84</v>
-      </c>
-      <c r="B8">
-        <v>98.244</v>
-      </c>
-      <c r="C8">
-        <v>18.914000000000001</v>
-      </c>
-      <c r="D8">
-        <v>0.89824999999999999</v>
-      </c>
-      <c r="F8">
-        <v>81.84</v>
-      </c>
-      <c r="G8">
-        <v>98.597999999999999</v>
-      </c>
-      <c r="H8">
-        <v>18.914000000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.89824999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>133.54</v>
-      </c>
-      <c r="B9">
-        <v>98.688000000000002</v>
-      </c>
-      <c r="C9">
-        <v>16.788</v>
-      </c>
-      <c r="D9">
-        <v>0.85570000000000002</v>
-      </c>
-      <c r="F9">
-        <v>133.54</v>
-      </c>
-      <c r="G9">
-        <v>99.131</v>
-      </c>
-      <c r="H9">
-        <v>16.788</v>
-      </c>
-      <c r="I9">
-        <v>0.85570000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>223.69</v>
-      </c>
-      <c r="B10">
-        <v>98.914000000000001</v>
-      </c>
-      <c r="C10">
-        <v>14.548</v>
-      </c>
-      <c r="D10">
-        <v>0.81130000000000002</v>
-      </c>
-      <c r="F10">
-        <v>223.69</v>
-      </c>
-      <c r="G10">
-        <v>99.400999999999996</v>
-      </c>
-      <c r="H10">
-        <v>14.548</v>
-      </c>
-      <c r="I10">
-        <v>0.81130000000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538666A5-2273-42DB-B81E-15C7E3096FF1}">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -47467,6 +47679,9 @@
       <c r="D3">
         <v>0.99999000000000005</v>
       </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
       <c r="F3">
         <v>0.20832999999999999</v>
       </c>
@@ -47493,6 +47708,9 @@
       <c r="D4">
         <v>0.99999000000000005</v>
       </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
       <c r="F4">
         <v>0.20832999999999999</v>
       </c>
@@ -47519,6 +47737,9 @@
       <c r="D5">
         <v>0.99999000000000005</v>
       </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
       <c r="F5">
         <v>0.25</v>
       </c>
@@ -47545,6 +47766,9 @@
       <c r="D6">
         <v>0.99992000000000003</v>
       </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
       <c r="F6">
         <v>0.58333000000000002</v>
       </c>
@@ -47560,80 +47784,89 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.70833000000000002</v>
+        <v>2.8332999999999999</v>
       </c>
       <c r="B7">
-        <v>98.966999999999999</v>
+        <v>98.97</v>
       </c>
       <c r="C7">
-        <v>46.584000000000003</v>
+        <v>40.563000000000002</v>
       </c>
       <c r="D7">
-        <v>0.99994000000000005</v>
+        <v>0.99988999999999995</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
       </c>
       <c r="F7">
-        <v>0.70833000000000002</v>
+        <v>2.8332999999999999</v>
       </c>
       <c r="G7">
-        <v>99.483000000000004</v>
+        <v>99.483999999999995</v>
       </c>
       <c r="H7">
-        <v>46.584000000000003</v>
+        <v>40.563000000000002</v>
       </c>
       <c r="I7">
-        <v>0.99994000000000005</v>
+        <v>0.99988999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4.3333000000000004</v>
+        <v>6.25</v>
       </c>
       <c r="B8">
-        <v>98.978999999999999</v>
+        <v>99</v>
       </c>
       <c r="C8">
-        <v>38.718000000000004</v>
+        <v>37.128</v>
       </c>
       <c r="D8">
-        <v>0.95384000000000002</v>
+        <v>0.99965000000000004</v>
+      </c>
+      <c r="E8">
+        <v>400</v>
       </c>
       <c r="F8">
-        <v>4.3333000000000004</v>
+        <v>6.25</v>
       </c>
       <c r="G8">
-        <v>99.492000000000004</v>
+        <v>99.501999999999995</v>
       </c>
       <c r="H8">
-        <v>38.718000000000004</v>
+        <v>37.128</v>
       </c>
       <c r="I8">
-        <v>0.95384000000000002</v>
+        <v>0.99965000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.8332999999999999</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>99.004999999999995</v>
+        <v>99.02</v>
       </c>
       <c r="C9">
-        <v>42.454000000000001</v>
+        <v>31.106999999999999</v>
       </c>
       <c r="D9">
-        <v>0.95411999999999997</v>
+        <v>0.88895000000000002</v>
+      </c>
+      <c r="E9">
+        <v>750</v>
       </c>
       <c r="F9">
-        <v>1.8332999999999999</v>
+        <v>25</v>
       </c>
       <c r="G9">
-        <v>99.509</v>
+        <v>99.518000000000001</v>
       </c>
       <c r="H9">
-        <v>42.454000000000001</v>
+        <v>31.106999999999999</v>
       </c>
       <c r="I9">
-        <v>0.95411999999999997</v>
+        <v>0.88895000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -47648,6 +47881,9 @@
       </c>
       <c r="D10">
         <v>0.99373999999999996</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
       </c>
       <c r="F10">
         <v>97.582999999999998</v>
@@ -47678,7 +47914,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="I10" sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47710,6 +47946,9 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
@@ -47736,6 +47975,9 @@
       <c r="D3">
         <v>0.99995000000000001</v>
       </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
       <c r="F3">
         <v>0.91712000000000005</v>
       </c>
@@ -47762,6 +48004,9 @@
       <c r="D4">
         <v>0.99936999999999998</v>
       </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
       <c r="F4">
         <v>9.4936000000000007</v>
       </c>
@@ -47788,6 +48033,9 @@
       <c r="D5">
         <v>0.99843999999999999</v>
       </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
       <c r="F5">
         <v>23.516999999999999</v>
       </c>
@@ -47814,6 +48062,9 @@
       <c r="D6">
         <v>0.99716000000000005</v>
       </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
       <c r="F6">
         <v>43.939</v>
       </c>
@@ -47829,80 +48080,89 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>66.86</v>
+        <v>72.221000000000004</v>
       </c>
       <c r="B7">
-        <v>98.352000000000004</v>
+        <v>98.417000000000002</v>
       </c>
       <c r="C7">
-        <v>25.654</v>
+        <v>25.318999999999999</v>
       </c>
       <c r="D7">
-        <v>0.99560999999999999</v>
+        <v>0.99509000000000003</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
       </c>
       <c r="F7">
-        <v>66.86</v>
+        <v>72.221000000000004</v>
       </c>
       <c r="G7">
-        <v>98.606999999999999</v>
+        <v>98.683999999999997</v>
       </c>
       <c r="H7">
-        <v>25.654</v>
+        <v>25.318999999999999</v>
       </c>
       <c r="I7">
-        <v>0.99560999999999999</v>
+        <v>0.99509000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>77.442999999999998</v>
+        <v>101.07</v>
       </c>
       <c r="B8">
-        <v>98.513999999999996</v>
+        <v>98.685000000000002</v>
       </c>
       <c r="C8">
-        <v>25.015999999999998</v>
+        <v>23.859000000000002</v>
       </c>
       <c r="D8">
-        <v>0.99482000000000004</v>
+        <v>0.99314999999999998</v>
+      </c>
+      <c r="E8">
+        <v>400</v>
       </c>
       <c r="F8">
-        <v>77.442999999999998</v>
+        <v>101.07</v>
       </c>
       <c r="G8">
-        <v>98.805999999999997</v>
+        <v>99.018000000000001</v>
       </c>
       <c r="H8">
-        <v>25.015999999999998</v>
+        <v>23.859000000000002</v>
       </c>
       <c r="I8">
-        <v>0.99482000000000004</v>
+        <v>0.99314999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>126.02</v>
+        <v>225.92</v>
       </c>
       <c r="B9">
-        <v>98.756</v>
+        <v>98.867999999999995</v>
       </c>
       <c r="C9">
-        <v>22.901</v>
+        <v>20.366</v>
       </c>
       <c r="D9">
-        <v>0.99195</v>
+        <v>0.98443000000000003</v>
+      </c>
+      <c r="E9">
+        <v>750</v>
       </c>
       <c r="F9">
-        <v>126.02</v>
+        <v>225.92</v>
       </c>
       <c r="G9">
-        <v>99.105999999999995</v>
+        <v>99.251999999999995</v>
       </c>
       <c r="H9">
-        <v>22.901</v>
+        <v>20.366</v>
       </c>
       <c r="I9">
-        <v>0.99195</v>
+        <v>0.98443000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -47917,6 +48177,9 @@
       </c>
       <c r="D10">
         <v>0.98395999999999995</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
       </c>
       <c r="F10">
         <v>270.49</v>
@@ -47947,7 +48210,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="I10" sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47979,6 +48242,9 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
@@ -48005,6 +48271,9 @@
       <c r="D3">
         <v>0.99553999999999998</v>
       </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
       <c r="F3">
         <v>2.0173999999999999</v>
       </c>
@@ -48031,6 +48300,9 @@
       <c r="D4">
         <v>0.96150999999999998</v>
       </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
       <c r="F4">
         <v>27.963000000000001</v>
       </c>
@@ -48057,6 +48329,9 @@
       <c r="D5">
         <v>0.93686000000000003</v>
       </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
       <c r="F5">
         <v>74.153000000000006</v>
       </c>
@@ -48083,6 +48358,9 @@
       <c r="D6">
         <v>0.90552999999999995</v>
       </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
       <c r="F6">
         <v>153.32</v>
       </c>
@@ -48098,80 +48376,89 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>244.2</v>
+        <v>268.10000000000002</v>
       </c>
       <c r="B7">
-        <v>96.581000000000003</v>
+        <v>96.861999999999995</v>
       </c>
       <c r="C7">
-        <v>11.715</v>
+        <v>11.308999999999999</v>
       </c>
       <c r="D7">
-        <v>0.88265000000000005</v>
+        <v>0.87495000000000001</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
       </c>
       <c r="F7">
-        <v>244.2</v>
+        <v>268.10000000000002</v>
       </c>
       <c r="G7">
-        <v>96.863</v>
+        <v>97.144000000000005</v>
       </c>
       <c r="H7">
-        <v>11.715</v>
+        <v>11.308999999999999</v>
       </c>
       <c r="I7">
-        <v>0.88265000000000005</v>
+        <v>0.87495000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>312.17</v>
+        <v>421.09</v>
       </c>
       <c r="B8">
-        <v>97.200999999999993</v>
+        <v>97.786000000000001</v>
       </c>
       <c r="C8">
-        <v>10.648</v>
+        <v>9.3483000000000001</v>
       </c>
       <c r="D8">
-        <v>0.83316999999999997</v>
+        <v>0.82630999999999999</v>
+      </c>
+      <c r="E8">
+        <v>400</v>
       </c>
       <c r="F8">
-        <v>312.17</v>
+        <v>421.09</v>
       </c>
       <c r="G8">
-        <v>97.521000000000001</v>
+        <v>98.171999999999997</v>
       </c>
       <c r="H8">
-        <v>10.648</v>
+        <v>9.3483000000000001</v>
       </c>
       <c r="I8">
-        <v>0.83316999999999997</v>
+        <v>0.82630999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>481.96</v>
+        <v>611.57000000000005</v>
       </c>
       <c r="B9">
-        <v>98.006</v>
+        <v>98.369</v>
       </c>
       <c r="C9">
-        <v>8.7619000000000007</v>
+        <v>7.7275999999999998</v>
       </c>
       <c r="D9">
-        <v>0.78964000000000001</v>
+        <v>0.70552999999999999</v>
+      </c>
+      <c r="E9">
+        <v>750</v>
       </c>
       <c r="F9">
-        <v>481.96</v>
+        <v>611.57000000000005</v>
       </c>
       <c r="G9">
-        <v>98.42</v>
+        <v>98.805999999999997</v>
       </c>
       <c r="H9">
-        <v>8.7619000000000007</v>
+        <v>7.7275999999999998</v>
       </c>
       <c r="I9">
-        <v>0.78964000000000001</v>
+        <v>0.70552999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -48186,6 +48473,9 @@
       </c>
       <c r="D10">
         <v>0.72690999999999995</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
       </c>
       <c r="F10">
         <v>721.35</v>
@@ -48216,7 +48506,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48248,6 +48538,9 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
@@ -48274,6 +48567,9 @@
       <c r="D3">
         <v>0.99997000000000003</v>
       </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
       <c r="F3">
         <v>0.24318999999999999</v>
       </c>
@@ -48300,6 +48596,9 @@
       <c r="D4">
         <v>0.99995999999999996</v>
       </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
       <c r="F4">
         <v>0.39748</v>
       </c>
@@ -48326,6 +48625,9 @@
       <c r="D5">
         <v>0.99985999999999997</v>
       </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
       <c r="F5">
         <v>1.3449</v>
       </c>
@@ -48352,6 +48654,9 @@
       <c r="D6">
         <v>0.99975000000000003</v>
       </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
       <c r="F6">
         <v>2.6263999999999998</v>
       </c>
@@ -48367,80 +48672,89 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5.0176999999999996</v>
+        <v>5.9550999999999998</v>
       </c>
       <c r="B7">
-        <v>98.912000000000006</v>
+        <v>98.926000000000002</v>
       </c>
       <c r="C7">
-        <v>38.158000000000001</v>
+        <v>37.414000000000001</v>
       </c>
       <c r="D7">
-        <v>0.99950000000000006</v>
+        <v>0.99943000000000004</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
       </c>
       <c r="F7">
-        <v>5.0176999999999996</v>
+        <v>5.9550999999999998</v>
       </c>
       <c r="G7">
-        <v>99.341999999999999</v>
+        <v>99.364000000000004</v>
       </c>
       <c r="H7">
-        <v>38.158000000000001</v>
+        <v>37.414000000000001</v>
       </c>
       <c r="I7">
-        <v>0.99950000000000006</v>
+        <v>0.99943000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8.1016999999999992</v>
+        <v>19.771999999999998</v>
       </c>
       <c r="B8">
-        <v>98.947999999999993</v>
+        <v>98.983000000000004</v>
       </c>
       <c r="C8">
-        <v>36.076999999999998</v>
+        <v>32.201999999999998</v>
       </c>
       <c r="D8">
-        <v>0.99922</v>
+        <v>0.99824000000000002</v>
+      </c>
+      <c r="E8">
+        <v>400</v>
       </c>
       <c r="F8">
-        <v>8.1016999999999992</v>
+        <v>19.771999999999998</v>
       </c>
       <c r="G8">
-        <v>99.394999999999996</v>
+        <v>99.445999999999998</v>
       </c>
       <c r="H8">
-        <v>36.076999999999998</v>
+        <v>32.201999999999998</v>
       </c>
       <c r="I8">
-        <v>0.99922</v>
+        <v>0.99824000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>29.486999999999998</v>
+        <v>61.904000000000003</v>
       </c>
       <c r="B9">
-        <v>98.994</v>
+        <v>99.013999999999996</v>
       </c>
       <c r="C9">
-        <v>30.466000000000001</v>
+        <v>27.245999999999999</v>
       </c>
       <c r="D9">
-        <v>0.99744999999999995</v>
+        <v>0.99478</v>
+      </c>
+      <c r="E9">
+        <v>750</v>
       </c>
       <c r="F9">
-        <v>29.486999999999998</v>
+        <v>61.904000000000003</v>
       </c>
       <c r="G9">
-        <v>99.457999999999998</v>
+        <v>99.483999999999995</v>
       </c>
       <c r="H9">
-        <v>30.466000000000001</v>
+        <v>27.245999999999999</v>
       </c>
       <c r="I9">
-        <v>0.99744999999999995</v>
+        <v>0.99478</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -48455,6 +48769,9 @@
       </c>
       <c r="D10">
         <v>0.99014000000000002</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
       </c>
       <c r="F10">
         <v>121.31</v>
@@ -48484,8 +48801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09151AA-09E6-436E-807C-9287DBA93F6F}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48517,6 +48834,9 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
@@ -48535,7 +48855,7 @@
         <v>1.3829</v>
       </c>
       <c r="B3">
-        <v>55.451000000000001</v>
+        <v>85.09</v>
       </c>
       <c r="C3">
         <v>41.067</v>
@@ -48543,11 +48863,14 @@
       <c r="D3">
         <v>0.98906000000000005</v>
       </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
       <c r="F3">
         <v>1.3829</v>
       </c>
       <c r="G3">
-        <v>56.726999999999997</v>
+        <v>85.516999999999996</v>
       </c>
       <c r="H3">
         <v>41.067</v>
@@ -48561,7 +48884,7 @@
         <v>7.3941999999999997</v>
       </c>
       <c r="B4">
-        <v>81.364999999999995</v>
+        <v>93.763000000000005</v>
       </c>
       <c r="C4">
         <v>33.786000000000001</v>
@@ -48569,11 +48892,14 @@
       <c r="D4">
         <v>0.95455999999999996</v>
       </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
       <c r="F4">
         <v>7.3941999999999997</v>
       </c>
       <c r="G4">
-        <v>82.197999999999993</v>
+        <v>94.042000000000002</v>
       </c>
       <c r="H4">
         <v>33.786000000000001</v>
@@ -48587,7 +48913,7 @@
         <v>12.006</v>
       </c>
       <c r="B5">
-        <v>87.403000000000006</v>
+        <v>95.784000000000006</v>
       </c>
       <c r="C5">
         <v>31.68</v>
@@ -48595,11 +48921,14 @@
       <c r="D5">
         <v>0.93623999999999996</v>
       </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
       <c r="F5">
         <v>12.006</v>
       </c>
       <c r="G5">
-        <v>88.186000000000007</v>
+        <v>96.046000000000006</v>
       </c>
       <c r="H5">
         <v>31.68</v>
@@ -48613,7 +48942,7 @@
         <v>19.071999999999999</v>
       </c>
       <c r="B6">
-        <v>91.381</v>
+        <v>97.114999999999995</v>
       </c>
       <c r="C6">
         <v>29.67</v>
@@ -48621,11 +48950,14 @@
       <c r="D6">
         <v>0.91202000000000005</v>
       </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
       <c r="F6">
         <v>19.071999999999999</v>
       </c>
       <c r="G6">
-        <v>92.224000000000004</v>
+        <v>97.397000000000006</v>
       </c>
       <c r="H6">
         <v>29.67</v>
@@ -48636,80 +48968,89 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>28.347999999999999</v>
+        <v>31.137</v>
       </c>
       <c r="B7">
-        <v>93.5</v>
+        <v>97.944000000000003</v>
       </c>
       <c r="C7">
-        <v>27.949000000000002</v>
+        <v>27.542000000000002</v>
       </c>
       <c r="D7">
-        <v>0.88529999999999998</v>
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
       </c>
       <c r="F7">
-        <v>28.347999999999999</v>
+        <v>31.137</v>
       </c>
       <c r="G7">
-        <v>94.492000000000004</v>
+        <v>98.286000000000001</v>
       </c>
       <c r="H7">
-        <v>27.949000000000002</v>
+        <v>27.542000000000002</v>
       </c>
       <c r="I7">
-        <v>0.88529999999999998</v>
+        <v>0.87819999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>37.44</v>
+        <v>55.747</v>
       </c>
       <c r="B8">
-        <v>94.436999999999998</v>
+        <v>98.459000000000003</v>
       </c>
       <c r="C8">
-        <v>26.741</v>
+        <v>25.012</v>
       </c>
       <c r="D8">
-        <v>0.86212999999999995</v>
+        <v>0.82540999999999998</v>
+      </c>
+      <c r="E8">
+        <v>400</v>
       </c>
       <c r="F8">
-        <v>37.44</v>
+        <v>55.747</v>
       </c>
       <c r="G8">
-        <v>95.515000000000001</v>
+        <v>98.849000000000004</v>
       </c>
       <c r="H8">
-        <v>26.741</v>
+        <v>25.012</v>
       </c>
       <c r="I8">
-        <v>0.86212999999999995</v>
+        <v>0.82540999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>68.641000000000005</v>
+        <v>105.91</v>
       </c>
       <c r="B9">
-        <v>95.759</v>
+        <v>98.75</v>
       </c>
       <c r="C9">
-        <v>24.109000000000002</v>
+        <v>22.225000000000001</v>
       </c>
       <c r="D9">
-        <v>0.80323999999999995</v>
+        <v>0.75270999999999999</v>
+      </c>
+      <c r="E9">
+        <v>750</v>
       </c>
       <c r="F9">
-        <v>68.641000000000005</v>
+        <v>105.91</v>
       </c>
       <c r="G9">
-        <v>97.007000000000005</v>
+        <v>99.209000000000003</v>
       </c>
       <c r="H9">
-        <v>24.109000000000002</v>
+        <v>22.225000000000001</v>
       </c>
       <c r="I9">
-        <v>0.80323999999999995</v>
+        <v>0.75270999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -48717,7 +49058,7 @@
         <v>141.81</v>
       </c>
       <c r="B10">
-        <v>96.545000000000002</v>
+        <v>98.843999999999994</v>
       </c>
       <c r="C10">
         <v>20.957000000000001</v>
@@ -48725,11 +49066,14 @@
       <c r="D10">
         <v>0.72185999999999995</v>
       </c>
+      <c r="E10">
+        <v>1000</v>
+      </c>
       <c r="F10">
         <v>141.81</v>
       </c>
       <c r="G10">
-        <v>97.971999999999994</v>
+        <v>99.320999999999998</v>
       </c>
       <c r="H10">
         <v>20.957000000000001</v>
@@ -48754,7 +49098,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="I10" sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48786,6 +49130,9 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
@@ -48812,6 +49159,9 @@
       <c r="D3">
         <v>0.99751000000000001</v>
       </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
       <c r="F3">
         <v>0.54644000000000004</v>
       </c>
@@ -48838,6 +49188,9 @@
       <c r="D4">
         <v>0.99426000000000003</v>
       </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
       <c r="F4">
         <v>1.3686</v>
       </c>
@@ -48864,6 +49217,9 @@
       <c r="D5">
         <v>0.99048000000000003</v>
       </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
       <c r="F5">
         <v>2.4304999999999999</v>
       </c>
@@ -48890,6 +49246,9 @@
       <c r="D6">
         <v>0.98233000000000004</v>
       </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
       <c r="F6">
         <v>4.7606999999999999</v>
       </c>
@@ -48905,80 +49264,89 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8.5946999999999996</v>
+        <v>10.532999999999999</v>
       </c>
       <c r="B7">
-        <v>98.745999999999995</v>
+        <v>98.787000000000006</v>
       </c>
       <c r="C7">
-        <v>33.067</v>
+        <v>32.183999999999997</v>
       </c>
       <c r="D7">
-        <v>0.97163999999999995</v>
+        <v>0.96606000000000003</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
       </c>
       <c r="F7">
-        <v>8.5946999999999996</v>
+        <v>10.532999999999999</v>
       </c>
       <c r="G7">
-        <v>99.179000000000002</v>
+        <v>99.228999999999999</v>
       </c>
       <c r="H7">
-        <v>33.067</v>
+        <v>32.183999999999997</v>
       </c>
       <c r="I7">
-        <v>0.97163999999999995</v>
+        <v>0.96606000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>14.877000000000001</v>
+        <v>33.500999999999998</v>
       </c>
       <c r="B8">
-        <v>98.84</v>
+        <v>98.921999999999997</v>
       </c>
       <c r="C8">
-        <v>30.684999999999999</v>
+        <v>27.158999999999999</v>
       </c>
       <c r="D8">
-        <v>0.95726999999999995</v>
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="E8">
+        <v>400</v>
       </c>
       <c r="F8">
-        <v>14.877000000000001</v>
+        <v>33.500999999999998</v>
       </c>
       <c r="G8">
-        <v>99.298000000000002</v>
+        <v>99.405000000000001</v>
       </c>
       <c r="H8">
-        <v>30.684999999999999</v>
+        <v>27.158999999999999</v>
       </c>
       <c r="I8">
-        <v>0.95726999999999995</v>
+        <v>0.92689999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>40.177999999999997</v>
+        <v>63.915999999999997</v>
       </c>
       <c r="B9">
-        <v>98.960999999999999</v>
+        <v>99.004999999999995</v>
       </c>
       <c r="C9">
-        <v>26.37</v>
+        <v>24.353999999999999</v>
       </c>
       <c r="D9">
-        <v>0.89941000000000004</v>
+        <v>0.86175000000000002</v>
+      </c>
+      <c r="E9">
+        <v>750</v>
       </c>
       <c r="F9">
-        <v>40.177999999999997</v>
+        <v>63.915999999999997</v>
       </c>
       <c r="G9">
-        <v>99.453000000000003</v>
+        <v>99.507000000000005</v>
       </c>
       <c r="H9">
-        <v>26.37</v>
+        <v>24.353999999999999</v>
       </c>
       <c r="I9">
-        <v>0.89941000000000004</v>
+        <v>0.86175000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -48993,6 +49361,9 @@
       </c>
       <c r="D10">
         <v>0.80120999999999998</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
       </c>
       <c r="F10">
         <v>127.42</v>
@@ -49019,11 +49390,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01293804-D971-48F4-A250-FE849F775FBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0093A1-6E7D-4584-978F-076087F7F153}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I10" sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49055,6 +49426,9 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
@@ -49070,210 +49444,234 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5.8757999999999999</v>
+        <v>5.8864000000000001</v>
       </c>
       <c r="B3">
-        <v>3.8041999999999998</v>
+        <v>47.631999999999998</v>
       </c>
       <c r="C3">
-        <v>35.67</v>
+        <v>35.122999999999998</v>
       </c>
       <c r="D3">
-        <v>0.99939999999999996</v>
+        <v>0.99594000000000005</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>5.8757999999999999</v>
+        <v>5.8864000000000001</v>
       </c>
       <c r="G3">
-        <v>22.158999999999999</v>
+        <v>50.875999999999998</v>
       </c>
       <c r="H3">
-        <v>35.67</v>
+        <v>35.122999999999998</v>
       </c>
       <c r="I3">
-        <v>0.99939999999999996</v>
+        <v>0.99594000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>131.16</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="B4">
-        <v>46.366999999999997</v>
+        <v>80.001999999999995</v>
       </c>
       <c r="C4">
-        <v>22.181999999999999</v>
+        <v>24.164000000000001</v>
       </c>
       <c r="D4">
-        <v>0.98673999999999995</v>
+        <v>0.95430999999999999</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>131.16</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="G4">
-        <v>51.023000000000003</v>
+        <v>80.656999999999996</v>
       </c>
       <c r="H4">
-        <v>22.181999999999999</v>
+        <v>24.164000000000001</v>
       </c>
       <c r="I4">
-        <v>0.98673999999999995</v>
+        <v>0.95430999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>500.76</v>
+        <v>129.86000000000001</v>
       </c>
       <c r="B5">
-        <v>60.832999999999998</v>
+        <v>88.1</v>
       </c>
       <c r="C5">
-        <v>16.364000000000001</v>
+        <v>21.687000000000001</v>
       </c>
       <c r="D5">
-        <v>0.95033000000000001</v>
+        <v>0.92457</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
       </c>
       <c r="F5">
-        <v>500.76</v>
+        <v>129.86000000000001</v>
       </c>
       <c r="G5">
-        <v>63.896999999999998</v>
+        <v>88.245999999999995</v>
       </c>
       <c r="H5">
-        <v>16.364000000000001</v>
+        <v>21.687000000000001</v>
       </c>
       <c r="I5">
-        <v>0.95033000000000001</v>
+        <v>0.92457</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1730.4</v>
+        <v>197.33</v>
       </c>
       <c r="B6">
-        <v>74.385999999999996</v>
+        <v>92.644999999999996</v>
       </c>
       <c r="C6">
-        <v>10.978999999999999</v>
+        <v>19.869</v>
       </c>
       <c r="D6">
-        <v>0.83479000000000003</v>
+        <v>0.89093</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
       </c>
       <c r="F6">
-        <v>1730.4</v>
+        <v>197.33</v>
       </c>
       <c r="G6">
-        <v>76.424999999999997</v>
+        <v>92.784999999999997</v>
       </c>
       <c r="H6">
-        <v>10.978999999999999</v>
+        <v>19.869</v>
       </c>
       <c r="I6">
-        <v>0.83479000000000003</v>
+        <v>0.89093</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3801.4</v>
+        <v>283.54000000000002</v>
       </c>
       <c r="B7">
-        <v>85.352000000000004</v>
+        <v>95.596000000000004</v>
       </c>
       <c r="C7">
-        <v>7.5609000000000002</v>
+        <v>18.295000000000002</v>
       </c>
       <c r="D7">
-        <v>0.58616000000000001</v>
+        <v>0.84646999999999994</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
       </c>
       <c r="F7">
-        <v>3801.4</v>
+        <v>283.54000000000002</v>
       </c>
       <c r="G7">
-        <v>87.228999999999999</v>
+        <v>95.872</v>
       </c>
       <c r="H7">
-        <v>7.5609000000000002</v>
+        <v>18.295000000000002</v>
       </c>
       <c r="I7">
-        <v>0.58616000000000001</v>
+        <v>0.84646999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4548.6000000000004</v>
+        <v>404.12</v>
       </c>
       <c r="B8">
-        <v>91.403999999999996</v>
+        <v>97.323999999999998</v>
       </c>
       <c r="C8">
-        <v>6.7815000000000003</v>
+        <v>16.756</v>
       </c>
       <c r="D8">
-        <v>0.40745999999999999</v>
+        <v>0.78649000000000002</v>
+      </c>
+      <c r="E8">
+        <v>400</v>
       </c>
       <c r="F8">
-        <v>4548.6000000000004</v>
+        <v>404.12</v>
       </c>
       <c r="G8">
-        <v>92.254999999999995</v>
+        <v>97.718000000000004</v>
       </c>
       <c r="H8">
-        <v>6.7815000000000003</v>
+        <v>16.756</v>
       </c>
       <c r="I8">
-        <v>0.40745999999999999</v>
+        <v>0.78649000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5045.8999999999996</v>
+        <v>581.30999999999995</v>
       </c>
       <c r="B9">
-        <v>96.007999999999996</v>
+        <v>98.262</v>
       </c>
       <c r="C9">
-        <v>6.3310000000000004</v>
+        <v>15.177</v>
       </c>
       <c r="D9">
-        <v>0.25085000000000002</v>
+        <v>0.70035999999999998</v>
+      </c>
+      <c r="E9">
+        <v>750</v>
       </c>
       <c r="F9">
-        <v>5045.8999999999996</v>
+        <v>581.30999999999995</v>
       </c>
       <c r="G9">
-        <v>96.665000000000006</v>
+        <v>98.710999999999999</v>
       </c>
       <c r="H9">
-        <v>6.3310000000000004</v>
+        <v>15.177</v>
       </c>
       <c r="I9">
-        <v>0.25085000000000002</v>
+        <v>0.70035999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5432.2</v>
+        <v>698.92</v>
       </c>
       <c r="B10">
-        <v>98.427000000000007</v>
+        <v>98.563999999999993</v>
       </c>
       <c r="C10">
-        <v>6.0106000000000002</v>
+        <v>14.377000000000001</v>
       </c>
       <c r="D10">
-        <v>9.6688999999999997E-2</v>
+        <v>0.63966000000000001</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
       </c>
       <c r="F10">
-        <v>5432.2</v>
+        <v>698.92</v>
       </c>
       <c r="G10">
-        <v>98.918000000000006</v>
+        <v>99.025999999999996</v>
       </c>
       <c r="H10">
-        <v>6.0106000000000002</v>
+        <v>14.377000000000001</v>
       </c>
       <c r="I10">
-        <v>9.6688999999999997E-2</v>
+        <v>0.63966000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -49288,11 +49686,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC42B418-3195-4346-A076-C36A46A17E97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01293804-D971-48F4-A250-FE849F775FBF}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+      <selection activeCell="I10" sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49324,6 +49722,9 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
@@ -49339,216 +49740,240 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.54688000000000003</v>
+        <v>5.8757999999999999</v>
       </c>
       <c r="B3">
-        <v>59.960999999999999</v>
+        <v>3.8041999999999998</v>
       </c>
       <c r="C3">
-        <v>47.003999999999998</v>
+        <v>35.67</v>
       </c>
       <c r="D3">
-        <v>0.99997999999999998</v>
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>0.54688000000000003</v>
+        <v>5.8757999999999999</v>
       </c>
       <c r="G3">
-        <v>69.28</v>
+        <v>22.158999999999999</v>
       </c>
       <c r="H3">
-        <v>47.003999999999998</v>
+        <v>35.67</v>
       </c>
       <c r="I3">
-        <v>0.99997999999999998</v>
+        <v>0.99939999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>27.780999999999999</v>
+        <v>131.16</v>
       </c>
       <c r="B4">
-        <v>76.299000000000007</v>
+        <v>46.366999999999997</v>
       </c>
       <c r="C4">
-        <v>29.945</v>
+        <v>22.181999999999999</v>
       </c>
       <c r="D4">
-        <v>0.99909000000000003</v>
+        <v>0.98673999999999995</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>27.780999999999999</v>
+        <v>131.16</v>
       </c>
       <c r="G4">
-        <v>78.72</v>
+        <v>51.023000000000003</v>
       </c>
       <c r="H4">
-        <v>29.945</v>
+        <v>22.181999999999999</v>
       </c>
       <c r="I4">
-        <v>0.99909000000000003</v>
+        <v>0.98673999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>36.609000000000002</v>
+        <v>500.76</v>
       </c>
       <c r="B5">
-        <v>80.724999999999994</v>
+        <v>60.832999999999998</v>
       </c>
       <c r="C5">
-        <v>28.747</v>
+        <v>16.364000000000001</v>
       </c>
       <c r="D5">
-        <v>0.99882000000000004</v>
+        <v>0.95033000000000001</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
       </c>
       <c r="F5">
-        <v>36.609000000000002</v>
+        <v>500.76</v>
       </c>
       <c r="G5">
-        <v>82.424999999999997</v>
+        <v>63.896999999999998</v>
       </c>
       <c r="H5">
-        <v>28.747</v>
+        <v>16.364000000000001</v>
       </c>
       <c r="I5">
-        <v>0.99882000000000004</v>
+        <v>0.95033000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>270.2</v>
+        <v>1730.4</v>
       </c>
       <c r="B6">
-        <v>84.954999999999998</v>
+        <v>74.385999999999996</v>
       </c>
       <c r="C6">
-        <v>20.065999999999999</v>
+        <v>10.978999999999999</v>
       </c>
       <c r="D6">
-        <v>0.99084000000000005</v>
+        <v>0.83479000000000003</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
       </c>
       <c r="F6">
-        <v>270.2</v>
+        <v>1730.4</v>
       </c>
       <c r="G6">
-        <v>86.915999999999997</v>
+        <v>76.424999999999997</v>
       </c>
       <c r="H6">
-        <v>20.065999999999999</v>
+        <v>10.978999999999999</v>
       </c>
       <c r="I6">
-        <v>0.99084000000000005</v>
+        <v>0.83479000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>869.44</v>
+        <v>4179.8</v>
       </c>
       <c r="B7">
-        <v>88.144999999999996</v>
+        <v>87.912999999999997</v>
       </c>
       <c r="C7">
-        <v>14.99</v>
+        <v>7.1487999999999996</v>
       </c>
       <c r="D7">
-        <v>0.96897</v>
+        <v>0.51253000000000004</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
       </c>
       <c r="F7">
-        <v>869.44</v>
+        <v>4179.8</v>
       </c>
       <c r="G7">
-        <v>90.108999999999995</v>
+        <v>89.372</v>
       </c>
       <c r="H7">
-        <v>14.99</v>
+        <v>7.1487999999999996</v>
       </c>
       <c r="I7">
-        <v>0.96897</v>
+        <v>0.51253000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1479.8</v>
+        <v>4884.5</v>
       </c>
       <c r="B8">
-        <v>89.966999999999999</v>
+        <v>94.897999999999996</v>
       </c>
       <c r="C8">
-        <v>12.680999999999999</v>
+        <v>6.4722</v>
       </c>
       <c r="D8">
-        <v>0.94593000000000005</v>
+        <v>0.29066999999999998</v>
+      </c>
+      <c r="E8">
+        <v>400</v>
       </c>
       <c r="F8">
-        <v>1479.8</v>
+        <v>4884.5</v>
       </c>
       <c r="G8">
-        <v>92.061000000000007</v>
+        <v>95.575000000000003</v>
       </c>
       <c r="H8">
-        <v>12.680999999999999</v>
+        <v>6.4722</v>
       </c>
       <c r="I8">
-        <v>0.94593000000000005</v>
+        <v>0.29066999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6031.1</v>
+        <v>5316.6</v>
       </c>
       <c r="B9">
-        <v>93.807000000000002</v>
+        <v>97.646000000000001</v>
       </c>
       <c r="C9">
-        <v>6.5787000000000004</v>
+        <v>6.1040000000000001</v>
       </c>
       <c r="D9">
-        <v>0.74150000000000005</v>
+        <v>0.16772000000000001</v>
+      </c>
+      <c r="E9">
+        <v>750</v>
       </c>
       <c r="F9">
-        <v>6031.1</v>
+        <v>5316.6</v>
       </c>
       <c r="G9">
-        <v>95.968000000000004</v>
+        <v>98.203000000000003</v>
       </c>
       <c r="H9">
-        <v>6.5787000000000004</v>
+        <v>6.1040000000000001</v>
       </c>
       <c r="I9">
-        <v>0.74150000000000005</v>
+        <v>0.16772000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6980</v>
+        <v>5432.2</v>
       </c>
       <c r="B10">
-        <v>95.89</v>
+        <v>98.427000000000007</v>
       </c>
       <c r="C10">
-        <v>5.9440999999999997</v>
+        <v>6.0106000000000002</v>
       </c>
       <c r="D10">
-        <v>0.71897</v>
+        <v>9.6688999999999997E-2</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
       </c>
       <c r="F10">
-        <v>6980</v>
+        <v>5432.2</v>
       </c>
       <c r="G10">
-        <v>98.713999999999999</v>
+        <v>98.918000000000006</v>
       </c>
       <c r="H10">
-        <v>5.9440999999999997</v>
+        <v>6.0106000000000002</v>
       </c>
       <c r="I10">
-        <v>0.71897</v>
+        <v>9.6688999999999997E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
